--- a/爬虫/top250_.xlsx
+++ b/爬虫/top250_.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K176"/>
+  <dimension ref="A1:K251"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -544,7 +544,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>2996380人评价</t>
+          <t>2997976人评价</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2213912人评价</t>
+          <t>2215149人评价</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -658,7 +658,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>2232647人评价</t>
+          <t>2233931人评价</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -715,7 +715,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>2270046人评价</t>
+          <t>2271430人评价</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -772,7 +772,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>2315613人评价</t>
+          <t>2316921人评价</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -829,7 +829,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>2363259人评价</t>
+          <t>2364337人评价</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -886,7 +886,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>1367276人评价</t>
+          <t>1368018人评价</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -943,7 +943,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>1929741人评价</t>
+          <t>1931472人评价</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>2135928人评价</t>
+          <t>2137209人评价</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1057,7 +1057,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>1155217人评价</t>
+          <t>1155821人评价</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1114,7 +1114,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>1787816人评价</t>
+          <t>1789207人评价</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1171,7 +1171,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>1435747人评价</t>
+          <t>1436329人评价</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1228,7 +1228,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>1728397人评价</t>
+          <t>1729301人评价</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1285,7 +1285,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>1916263人评价</t>
+          <t>1917276人评价</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1342,7 +1342,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>1355945人评价</t>
+          <t>1356720人评价</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1399,7 +1399,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>1359906人评价</t>
+          <t>1360597人评价</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1456,7 +1456,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>2022977人评价</t>
+          <t>2024427人评价</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>1417115人评价</t>
+          <t>1418154人评价</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -1570,7 +1570,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>601085人评价</t>
+          <t>601715人评价</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>1580368人评价</t>
+          <t>1581166人评价</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -1684,7 +1684,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>960871人评价</t>
+          <t>961381人评价</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -1741,7 +1741,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>1003985人评价</t>
+          <t>1004601人评价</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -1794,7 +1794,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>1164200人评价</t>
+          <t>1165007人评价</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -1851,7 +1851,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>1565918人评价</t>
+          <t>1566686人评价</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -1904,7 +1904,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>1756300人评价</t>
+          <t>1757496人评价</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -1961,7 +1961,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>924360人评价</t>
+          <t>925074人评价</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -2018,7 +2018,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>1304869人评价</t>
+          <t>1305540人评价</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -2075,7 +2075,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>1891394人评价</t>
+          <t>1892390人评价</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -2132,7 +2132,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>880639人评价</t>
+          <t>881254人评价</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -2181,7 +2181,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>1246508人评价</t>
+          <t>1247414人评价</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -2238,7 +2238,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>1098660人评价</t>
+          <t>1099308人评价</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -2295,7 +2295,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>832657人评价</t>
+          <t>833169人评价</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -2352,7 +2352,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>2173816人评价</t>
+          <t>2174976人评价</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -2409,7 +2409,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>715992人评价</t>
+          <t>716386人评价</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -2466,7 +2466,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>1372998人评价</t>
+          <t>1373805人评价</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -2523,7 +2523,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>711780人评价</t>
+          <t>712183人评价</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -2576,7 +2576,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>513714人评价</t>
+          <t>514088人评价</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -2633,7 +2633,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>1066389人评价</t>
+          <t>1067101人评价</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -2690,7 +2690,7 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>1759002人评价</t>
+          <t>1760075人评价</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -2747,7 +2747,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>1079215人评价</t>
+          <t>1079793人评价</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -2804,7 +2804,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>1616426人评价</t>
+          <t>1617237人评价</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -2861,7 +2861,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>1075183人评价</t>
+          <t>1076099人评价</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -2918,7 +2918,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>911519人评价</t>
+          <t>912130人评价</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -2975,7 +2975,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>650027人评价</t>
+          <t>650436人评价</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -3032,7 +3032,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>657955人评价</t>
+          <t>658820人评价</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -3089,7 +3089,7 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>1388300人评价</t>
+          <t>1388948人评价</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -3146,7 +3146,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>670200人评价</t>
+          <t>670708人评价</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -3203,7 +3203,7 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>1258682人评价</t>
+          <t>1259352人评价</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -3260,7 +3260,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>781599人评价</t>
+          <t>782115人评价</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -3317,7 +3317,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>923265人评价</t>
+          <t>923893人评价</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -3374,7 +3374,7 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>762651人评价</t>
+          <t>763244人评价</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -3431,7 +3431,7 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>1713773人评价</t>
+          <t>1714975人评价</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -3488,7 +3488,7 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>976960人评价</t>
+          <t>977404人评价</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -3545,7 +3545,7 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>457230人评价</t>
+          <t>457574人评价</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -3602,7 +3602,7 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>696048人评价</t>
+          <t>696313人评价</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -3655,7 +3655,7 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>865840人评价</t>
+          <t>866367人评价</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -3712,7 +3712,7 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>877613人评价</t>
+          <t>878204人评价</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -3769,7 +3769,7 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>575093人评价</t>
+          <t>575460人评价</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -3826,7 +3826,7 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>876456人评价</t>
+          <t>877035人评价</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -3883,7 +3883,7 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>608664人评价</t>
+          <t>609119人评价</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -3940,7 +3940,7 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>645910人评价</t>
+          <t>646360人评价</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -3997,7 +3997,7 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>876874人评价</t>
+          <t>877410人评价</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -4054,7 +4054,7 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>1017411人评价</t>
+          <t>1017977人评价</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -4111,7 +4111,7 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>793510人评价</t>
+          <t>793926人评价</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>587817人评价</t>
+          <t>588250人评价</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -4221,7 +4221,7 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>583349人评价</t>
+          <t>583692人评价</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -4278,7 +4278,7 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>1161970人评价</t>
+          <t>1162781人评价</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -4335,7 +4335,7 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>615629人评价</t>
+          <t>616061人评价</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -4392,7 +4392,7 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>1008272人评价</t>
+          <t>1008851人评价</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -4449,7 +4449,7 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>624673人评价</t>
+          <t>625060人评价</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -4506,7 +4506,7 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>1319334人评价</t>
+          <t>1320155人评价</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -4518,114 +4518,114 @@
     <row r="73" ht="30" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>https://movie.douban.com/subject/1652587/</t>
+          <t>https://movie.douban.com/subject/3011235/</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>https://img1.doubanio.com/view/photo/s_ratio_poster/public/p2180085848.jpg</t>
+          <t>https://img3.doubanio.com/view/photo/s_ratio_poster/public/p917846733.jpg</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>阿凡达</t>
+          <t>哈利·波特与死亡圣器(下)</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>詹姆斯·卡梅隆</t>
+          <t>大卫·叶茨</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>萨姆、沃辛顿</t>
+          <t>丹尼尔、雷德克里夫</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2009</t>
+          <t>2011</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>美国</t>
+          <t>美国、英国</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>动作、科幻、冒险</t>
+          <t>奇幻、冒险</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>8.8</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>1465332人评价</t>
+          <t>867109人评价</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>绝对意义上的美轮美奂。</t>
+          <t>10年的完美句点。</t>
         </is>
       </c>
     </row>
     <row r="74" ht="30" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>https://movie.douban.com/subject/3011235/</t>
+          <t>https://movie.douban.com/subject/1652587/</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>https://img3.doubanio.com/view/photo/s_ratio_poster/public/p917846733.jpg</t>
+          <t>https://img1.doubanio.com/view/photo/s_ratio_poster/public/p2180085848.jpg</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>哈利·波特与死亡圣器(下)</t>
+          <t>阿凡达</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>大卫·叶茨</t>
+          <t>詹姆斯·卡梅隆</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>丹尼尔、雷德克里夫</t>
+          <t>萨姆、沃辛顿</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2011</t>
+          <t>2009</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>美国、英国</t>
+          <t>美国</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>奇幻、冒险</t>
+          <t>动作、科幻、冒险</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>8.8</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>866547人评价</t>
+          <t>1466138人评价</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>10年的完美句点。</t>
+          <t>绝对意义上的美轮美奂。</t>
         </is>
       </c>
     </row>
@@ -4677,7 +4677,7 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>668525人评价</t>
+          <t>668908人评价</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
@@ -4734,7 +4734,7 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>563252人评价</t>
+          <t>563531人评价</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
@@ -4791,7 +4791,7 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>424959人评价</t>
+          <t>425190人评价</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
@@ -4848,7 +4848,7 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>924257人评价</t>
+          <t>924848人评价</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -4905,7 +4905,7 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>1188094人评价</t>
+          <t>1189138人评价</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -4962,7 +4962,7 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>980381人评价</t>
+          <t>981212人评价</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -5015,7 +5015,7 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>1015287人评价</t>
+          <t>1015948人评价</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -5068,7 +5068,7 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>972054人评价</t>
+          <t>972603人评价</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -5121,7 +5121,7 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>769136人评价</t>
+          <t>769753人评价</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
@@ -5178,7 +5178,7 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>889906人评价</t>
+          <t>890476人评价</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
@@ -5235,7 +5235,7 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>743237人评价</t>
+          <t>743743人评价</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
@@ -5292,7 +5292,7 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>635292人评价</t>
+          <t>635930人评价</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
@@ -5349,7 +5349,7 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>865434人评价</t>
+          <t>865989人评价</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -5406,7 +5406,7 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>313868人评价</t>
+          <t>314060人评价</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
@@ -5463,7 +5463,7 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>364462人评价</t>
+          <t>364575人评价</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
@@ -5520,7 +5520,7 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>654391人评价</t>
+          <t>654796人评价</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
@@ -5577,7 +5577,7 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>1002848人评价</t>
+          <t>1003395人评价</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
@@ -5634,7 +5634,7 @@
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>426459人评价</t>
+          <t>426708人评价</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
@@ -5691,7 +5691,7 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>858465人评价</t>
+          <t>859051人评价</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
@@ -5748,7 +5748,7 @@
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>747866人评价</t>
+          <t>748535人评价</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
@@ -5801,7 +5801,7 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>796294人评价</t>
+          <t>796900人评价</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
@@ -5858,7 +5858,7 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>491023人评价</t>
+          <t>491493人评价</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
@@ -5870,32 +5870,32 @@
     <row r="97" ht="30" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>https://movie.douban.com/subject/1292223/</t>
+          <t>https://movie.douban.com/subject/1298070/</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>https://img9.doubanio.com/view/photo/s_ratio_poster/public/p2219586434.jpg</t>
+          <t>https://img9.doubanio.com/view/photo/s_ratio_poster/public/p1596085504.jpg</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>七宗罪</t>
+          <t>加勒比海盗</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>大卫·芬奇</t>
+          <t>戈尔·维宾斯基</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>摩根、弗里曼、布</t>
+          <t>约翰尼、德普</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>1995</t>
+          <t>2003</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
@@ -5905,7 +5905,7 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>剧情、犯罪、悬疑、惊悚</t>
+          <t>动作、冒险、奇幻</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
@@ -5915,44 +5915,44 @@
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>970890人评价</t>
+          <t>890360人评价</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>警察抓小偷，老鼠玩死猫。</t>
+          <t>约翰尼·德普的独角戏。</t>
         </is>
       </c>
     </row>
     <row r="98" ht="30" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>https://movie.douban.com/subject/1298070/</t>
+          <t>https://movie.douban.com/subject/1292223/</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>https://img9.doubanio.com/view/photo/s_ratio_poster/public/p1596085504.jpg</t>
+          <t>https://img9.doubanio.com/view/photo/s_ratio_poster/public/p2219586434.jpg</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>加勒比海盗</t>
+          <t>七宗罪</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>戈尔·维宾斯基</t>
+          <t>大卫·芬奇</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>约翰尼、德普</t>
+          <t>摩根、弗里曼、布</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>2003</t>
+          <t>1995</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
@@ -5962,7 +5962,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>动作、冒险、奇幻</t>
+          <t>剧情、犯罪、悬疑、惊悚</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -5972,12 +5972,12 @@
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>889846人评价</t>
+          <t>971364人评价</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>约翰尼·德普的独角戏。</t>
+          <t>警察抓小偷，老鼠玩死猫。</t>
         </is>
       </c>
     </row>
@@ -6029,7 +6029,7 @@
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>418028人评价</t>
+          <t>418528人评价</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
@@ -6086,7 +6086,7 @@
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>410684人评价</t>
+          <t>411054人评价</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
@@ -6143,7 +6143,7 @@
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>1119550人评价</t>
+          <t>1120234人评价</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
@@ -6200,7 +6200,7 @@
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>575671人评价</t>
+          <t>576048人评价</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
@@ -6257,7 +6257,7 @@
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>723521人评价</t>
+          <t>723913人评价</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
@@ -6314,7 +6314,7 @@
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>748548人评价</t>
+          <t>749020人评价</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
@@ -6371,7 +6371,7 @@
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>713315人评价</t>
+          <t>713771人评价</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
@@ -6428,7 +6428,7 @@
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>748920人评价</t>
+          <t>749781人评价</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
@@ -6485,7 +6485,7 @@
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>587241人评价</t>
+          <t>587953人评价</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
@@ -6542,7 +6542,7 @@
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>726587人评价</t>
+          <t>726936人评价</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
@@ -6599,7 +6599,7 @@
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>1061246人评价</t>
+          <t>1061635人评价</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
@@ -6656,7 +6656,7 @@
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>690221人评价</t>
+          <t>690650人评价</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
@@ -6713,7 +6713,7 @@
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>576789人评价</t>
+          <t>577115人评价</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
@@ -6770,7 +6770,7 @@
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>842222人评价</t>
+          <t>842674人评价</t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
@@ -6827,7 +6827,7 @@
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>1052482人评价</t>
+          <t>1053178人评价</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
@@ -6884,7 +6884,7 @@
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>571078人评价</t>
+          <t>571303人评价</t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
@@ -6941,7 +6941,7 @@
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>585849人评价</t>
+          <t>586240人评价</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
@@ -6998,7 +6998,7 @@
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>541606人评价</t>
+          <t>541864人评价</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
@@ -7055,7 +7055,7 @@
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>616174人评价</t>
+          <t>616528人评价</t>
         </is>
       </c>
       <c r="K117" t="inlineStr">
@@ -7112,7 +7112,7 @@
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>1419731人评价</t>
+          <t>1420834人评价</t>
         </is>
       </c>
       <c r="K118" t="inlineStr"/>
@@ -7165,7 +7165,7 @@
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>573727人评价</t>
+          <t>574089人评价</t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
@@ -7222,7 +7222,7 @@
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>990465人评价</t>
+          <t>991065人评价</t>
         </is>
       </c>
       <c r="K120" t="inlineStr">
@@ -7279,7 +7279,7 @@
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>334550人评价</t>
+          <t>334879人评价</t>
         </is>
       </c>
       <c r="K121" t="inlineStr">
@@ -7336,7 +7336,7 @@
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>633795人评价</t>
+          <t>634130人评价</t>
         </is>
       </c>
       <c r="K122" t="inlineStr">
@@ -7393,7 +7393,7 @@
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>327112人评价</t>
+          <t>327447人评价</t>
         </is>
       </c>
       <c r="K123" t="inlineStr">
@@ -7405,114 +7405,114 @@
     <row r="124" ht="30" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>https://movie.douban.com/subject/1292215/</t>
+          <t>https://movie.douban.com/subject/1297447/</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>https://img3.doubanio.com/view/photo/s_ratio_poster/public/p2447590313.jpg</t>
+          <t>https://img9.doubanio.com/view/photo/s_ratio_poster/public/p2414157745.jpg</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>天使爱美丽</t>
+          <t>倩女幽魂</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>让·皮埃尔·热内</t>
+          <t>程小东</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>奥黛丽、塔图</t>
+          <t>张国荣、王祖贤</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>2001</t>
+          <t>1987</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>法国、德国</t>
+          <t>中国香港</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>剧情、喜剧、爱情</t>
+          <t>爱情、奇幻、武侠、古装</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>8.7</t>
+          <t>8.8</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>972449人评价</t>
+          <t>761041人评价</t>
         </is>
       </c>
       <c r="K124" t="inlineStr">
         <is>
-          <t xml:space="preserve">法式小清新。 </t>
+          <t xml:space="preserve">两张绝世的脸。 </t>
         </is>
       </c>
     </row>
     <row r="125" ht="30" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>https://movie.douban.com/subject/1297447/</t>
+          <t>https://movie.douban.com/subject/1292215/</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>https://img9.doubanio.com/view/photo/s_ratio_poster/public/p2414157745.jpg</t>
+          <t>https://img3.doubanio.com/view/photo/s_ratio_poster/public/p2447590313.jpg</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>倩女幽魂</t>
+          <t>天使爱美丽</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>程小东</t>
+          <t>让·皮埃尔·热内</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>张国荣、王祖贤</t>
+          <t>奥黛丽、塔图</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>1987</t>
+          <t>2001</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>中国香港</t>
+          <t>法国、德国</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>爱情、奇幻、武侠、古装</t>
+          <t>剧情、喜剧、爱情</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>8.8</t>
+          <t>8.7</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>760622人评价</t>
+          <t>972748人评价</t>
         </is>
       </c>
       <c r="K125" t="inlineStr">
         <is>
-          <t xml:space="preserve">两张绝世的脸。 </t>
+          <t xml:space="preserve">法式小清新。 </t>
         </is>
       </c>
     </row>
@@ -7564,7 +7564,7 @@
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>705910人评价</t>
+          <t>706417人评价</t>
         </is>
       </c>
       <c r="K126" t="inlineStr">
@@ -7576,32 +7576,32 @@
     <row r="127" ht="30" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>https://movie.douban.com/subject/25895901/</t>
+          <t>https://movie.douban.com/subject/25814705/</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>https://img3.doubanio.com/view/photo/s_ratio_poster/public/p2603364117.jpg</t>
+          <t>https://img3.doubanio.com/view/photo/s_ratio_poster/public/p2564498893.jpg</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>海街日记</t>
+          <t>小森林 夏秋篇</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>是枝裕和</t>
+          <t>森淳一</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>绫濑遥、长泽雅美</t>
+          <t>桥本爱、三浦贵大</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2014</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
@@ -7611,274 +7611,274 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>剧情、家庭</t>
+          <t>剧情</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>8.8</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>466996人评价</t>
+          <t>438254人评价</t>
         </is>
       </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>是枝裕和的家庭习作。</t>
+          <t>那些静得只能听见呼吸的日子里，你明白孤独即生活。</t>
         </is>
       </c>
     </row>
     <row r="128" ht="30" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>https://movie.douban.com/subject/1295409/</t>
+          <t>https://movie.douban.com/subject/1395091/</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>https://img1.doubanio.com/view/photo/s_ratio_poster/public/p2597918718.jpg</t>
+          <t>https://img3.doubanio.com/view/photo/s_ratio_poster/public/p1351050722.jpg</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>纵横四海</t>
+          <t>未麻的部屋</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>吴宇森</t>
+          <t>今敏</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>周润发、张国荣</t>
+          <t>岩男润子、松本梨香</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>1991</t>
+          <t>1997</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>中国香港</t>
+          <t>日本</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>剧情、喜剧、动作、犯罪</t>
+          <t>动画、奇幻、惊悚</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>8.8</t>
+          <t>9.1</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>439981人评价</t>
+          <t>358592人评价</t>
         </is>
       </c>
       <c r="K128" t="inlineStr">
         <is>
-          <t>香港浪漫主义警匪动作片的巅峰之作。</t>
+          <t>好的剧本是，就算你猜到了结局也猜不到全部。</t>
         </is>
       </c>
     </row>
     <row r="129" ht="30" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>https://movie.douban.com/subject/1291822/</t>
+          <t>https://movie.douban.com/subject/1309055/</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>https://img3.doubanio.com/view/photo/s_ratio_poster/public/p470419493.jpg</t>
+          <t>https://img9.doubanio.com/view/photo/s_ratio_poster/public/p735391084.jpg</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>卢旺达饭店</t>
+          <t>哈利·波特与火焰杯</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>特瑞·乔治</t>
+          <t>迈克·内威尔</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>唐、钱德尔、苏菲、奥</t>
+          <t>丹尼尔、雷德克里夫</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>2004</t>
+          <t>2005</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>英国、南非、意大利、美国</t>
+          <t>英国、美国</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>剧情、传记、历史、战争</t>
+          <t>悬疑、奇幻、冒险</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>8.9</t>
+          <t>8.8</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>340635人评价</t>
-        </is>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>当这个世界闭上双眼，他却敞开了怀抱。</t>
-        </is>
-      </c>
+          <t>695757人评价</t>
+        </is>
+      </c>
+      <c r="K129" t="inlineStr"/>
     </row>
     <row r="130" ht="30" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>https://movie.douban.com/subject/24733428/</t>
+          <t>https://movie.douban.com/subject/1297052/</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>https://img1.doubanio.com/view/photo/s_ratio_poster/public/p2595591069.jpg</t>
+          <t>https://img3.doubanio.com/view/photo/s_ratio_poster/public/p456692072.jpg</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>心灵奇旅</t>
+          <t>侧耳倾听</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>彼特·道格特·凯普·鲍尔斯</t>
+          <t>近藤喜文</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>杰米</t>
+          <t>本名阳子、小林桂树</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>1995</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>美国</t>
+          <t>日本</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>动画、奇幻、音乐</t>
+          <t>剧情、爱情、动画</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>8.7</t>
+          <t>8.9</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>1024786人评价</t>
-        </is>
-      </c>
-      <c r="K130" t="inlineStr"/>
+          <t>479351人评价</t>
+        </is>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>少女情怀总是诗。</t>
+        </is>
+      </c>
     </row>
     <row r="131" ht="30" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>https://movie.douban.com/subject/1307856/</t>
+          <t>https://movie.douban.com/subject/2353023/</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>https://img3.doubanio.com/view/photo/s_ratio_poster/public/p2505048077.jpg</t>
+          <t>https://img9.doubanio.com/view/photo/s_ratio_poster/public/p2210954024.jpg</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>背靠背，脸对脸</t>
+          <t>驯龙高手</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>黄建新·杨亚洲</t>
-        </is>
-      </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>牛振华</t>
-        </is>
-      </c>
+          <t>迪恩·德布洛斯·克里斯·桑德斯</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr"/>
       <c r="F131" t="inlineStr">
         <is>
-          <t>1994</t>
+          <t>2010</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>中国大陆、中国香港</t>
+          <t>美国</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>剧情</t>
+          <t>动画、奇幻、冒险</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>9.5</t>
+          <t>8.8</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>144883人评价</t>
-        </is>
-      </c>
-      <c r="K131" t="inlineStr"/>
+          <t>783363人评价</t>
+        </is>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>和谐的生活离不开摸头与被摸头。</t>
+        </is>
+      </c>
     </row>
     <row r="132" ht="30" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>https://movie.douban.com/subject/1304447/</t>
+          <t>https://movie.douban.com/subject/1292274/</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>https://img3.doubanio.com/view/photo/s_ratio_poster/public/p641688453.jpg</t>
+          <t>https://img3.doubanio.com/view/photo/s_ratio_poster/public/p854757687.jpg</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>记忆碎片</t>
+          <t>幸福终点站</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>克里斯托弗·诺兰</t>
+          <t>史蒂文·斯皮尔伯格</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>盖、皮尔斯</t>
+          <t>汤姆、汉克斯</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>2000</t>
+          <t>2004</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
@@ -7888,111 +7888,111 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>犯罪、剧情、悬疑、惊悚</t>
+          <t>喜剧、剧情、爱情</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>8.7</t>
+          <t>8.8</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>622557人评价</t>
+          <t>592139人评价</t>
         </is>
       </c>
       <c r="K132" t="inlineStr">
         <is>
-          <t>一个针管引发的血案。</t>
+          <t xml:space="preserve">有时候幸福需要等一等。 </t>
         </is>
       </c>
     </row>
     <row r="133" ht="30" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>https://movie.douban.com/subject/1862151/</t>
+          <t>https://movie.douban.com/subject/26628357/</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>https://img3.doubanio.com/view/photo/s_ratio_poster/public/p712241453.jpg</t>
+          <t>https://img3.doubanio.com/view/photo/s_ratio_poster/public/p2406624993.jpg</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>疯狂的石头</t>
+          <t>一个叫欧维的男人决定去死</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>宁浩</t>
+          <t>汉内斯·赫尔姆</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>郭涛、刘桦、连晋</t>
+          <t>罗夫、拉斯加德</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>2006</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>中国大陆、中国香港</t>
+          <t>瑞典</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>喜剧、犯罪</t>
+          <t>剧情</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>8.6</t>
+          <t>8.9</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>853448人评价</t>
+          <t>506439人评价</t>
         </is>
       </c>
       <c r="K133" t="inlineStr">
         <is>
-          <t>中国版《两杆大烟枪》。</t>
+          <t>惠及一生的美丽。</t>
         </is>
       </c>
     </row>
     <row r="134" ht="30" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>https://movie.douban.com/subject/1293460/</t>
+          <t>https://movie.douban.com/subject/1291579/</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>https://img9.doubanio.com/view/photo/s_ratio_poster/public/p1612355875.jpg</t>
+          <t>https://img1.doubanio.com/view/photo/s_ratio_poster/public/p2513247938.jpg</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>雨中曲</t>
+          <t>怪兽电力公司</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>斯坦利·多南·吉恩·凯利</t>
+          <t>彼特·道格特·大卫·斯沃曼</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>吉恩</t>
+          <t>约</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>1952</t>
+          <t>2001</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
@@ -8002,159 +8002,163 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>喜剧、歌舞、爱情</t>
+          <t>儿童、喜剧、动画、奇幻、冒险</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>9.1</t>
+          <t>8.8</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>236958人评价</t>
+          <t>701649人评价</t>
         </is>
       </c>
       <c r="K134" t="inlineStr">
         <is>
-          <t>骨灰级歌舞片。</t>
+          <t>不要给它起名字，起了名字就有感情了。</t>
         </is>
       </c>
     </row>
     <row r="135" ht="30" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>https://movie.douban.com/subject/1292226/</t>
+          <t>https://movie.douban.com/subject/1294240/</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>https://img9.doubanio.com/view/photo/s_ratio_poster/public/p2560717825.jpg</t>
+          <t>https://img2.doubanio.com/view/photo/s_ratio_poster/public/p2169664351.jpg</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>2001太空漫游</t>
+          <t>教父3</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>斯坦利·库布里克</t>
+          <t>弗朗西斯·福特·科波拉</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>凯尔、杜拉</t>
+          <t>阿尔、帕西诺</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>1968</t>
+          <t>1990</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>英国、美国</t>
+          <t>美国</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>科幻、惊悚、冒险</t>
+          <t>剧情、犯罪</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>8.9</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>347200人评价</t>
+          <t>390085人评价</t>
         </is>
       </c>
       <c r="K135" t="inlineStr">
         <is>
-          <t>现代科幻电影的开山之作，最伟大导演的最伟大影片。</t>
+          <t>任何信念的力量，都无法改变命运。</t>
         </is>
       </c>
     </row>
     <row r="136" ht="30" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>https://movie.douban.com/subject/1307106/</t>
+          <t>https://movie.douban.com/subject/25814707/</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>https://img1.doubanio.com/view/photo/s_ratio_poster/public/p958008320.jpg</t>
+          <t>https://img3.doubanio.com/view/photo/s_ratio_poster/public/p2618201652.jpg</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>无间道2</t>
+          <t>小森林 冬春篇</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>刘伟强·麦兆辉</t>
+          <t>森淳一</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>陈冠希、余文乐、曾</t>
+          <t>桥本爱、三浦贵大</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>2003</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>中国香港</t>
+          <t>日本</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>剧情、犯罪、惊悚</t>
+          <t>剧情</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>8.7</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>500761人评价</t>
-        </is>
-      </c>
-      <c r="K136" t="inlineStr"/>
+          <t>390874人评价</t>
+        </is>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>尊敬他人，尊敬你生活的这片土地，明白孤独是人生的常态。</t>
+        </is>
+      </c>
     </row>
     <row r="137" ht="30" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>https://movie.douban.com/subject/3792799/</t>
+          <t>https://movie.douban.com/subject/1858711/</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>https://img2.doubanio.com/view/photo/s_ratio_poster/public/p456666151.jpg</t>
+          <t>https://img1.doubanio.com/view/photo/s_ratio_poster/public/p1283675359.jpg</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>岁月神偷</t>
+          <t>玩具总动员3</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>罗启锐</t>
+          <t>李·昂克里奇</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>吴君如、任达华、钟绍</t>
+          <t>汤姆、汉克斯、蒂姆、艾</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
@@ -8164,293 +8168,293 @@
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>中国香港、中国大陆</t>
+          <t>美国</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>剧情、家庭</t>
+          <t>喜剧、动画、奇幻、冒险</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>8.7</t>
+          <t>8.9</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>585287人评价</t>
+          <t>539617人评价</t>
         </is>
       </c>
       <c r="K137" t="inlineStr">
         <is>
-          <t>岁月流逝，来日可追。</t>
+          <t>跨度十五年的欢乐与泪水。</t>
         </is>
       </c>
     </row>
     <row r="138" ht="30" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>https://movie.douban.com/subject/27622447/</t>
+          <t>https://movie.douban.com/subject/10437779/</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>https://img9.doubanio.com/view/photo/s_ratio_poster/public/p2530599636.jpg</t>
+          <t>https://img1.doubanio.com/view/photo/s_ratio_poster/public/p1903379979.jpg</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>小偷家族</t>
+          <t>新世界</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>是枝裕和</t>
+          <t>朴勋政</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>中川雅也、安藤樱</t>
+          <t>李政宰、崔岷植</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2013</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>日本</t>
+          <t>韩国</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>剧情、犯罪、家庭</t>
+          <t>剧情、犯罪</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>8.7</t>
+          <t>8.9</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>836661人评价</t>
+          <t>463365人评价</t>
         </is>
       </c>
       <c r="K138" t="inlineStr">
         <is>
-          <t>我们组成了家。</t>
+          <t>要做就做得狠一点，这样才能活下去。</t>
         </is>
       </c>
     </row>
     <row r="139" ht="30" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>https://movie.douban.com/subject/1959195/</t>
+          <t>https://movie.douban.com/subject/1418200/</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>https://img9.doubanio.com/view/photo/s_ratio_poster/public/p2603716224.jpg</t>
+          <t>https://img1.doubanio.com/view/photo/s_ratio_poster/public/p2016401659.jpg</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>忠犬八公物语</t>
+          <t>傲慢与偏见</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>神山征二郎</t>
+          <t>乔·怀特</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>仲代达矢</t>
+          <t>凯拉、奈特莉、马修</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>1987</t>
+          <t>2005</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>日本</t>
+          <t>法国、英国、美国</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>剧情</t>
+          <t>剧情、爱情</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>9.2</t>
+          <t>8.7</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>202259人评价</t>
+          <t>833838人评价</t>
         </is>
       </c>
       <c r="K139" t="inlineStr">
         <is>
-          <t>养狗三日，便会对你终其一生。</t>
+          <t>爱是摈弃傲慢与偏见之后的曙光。</t>
         </is>
       </c>
     </row>
     <row r="140" ht="30" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>https://movie.douban.com/subject/6534248/</t>
+          <t>https://movie.douban.com/subject/1461403/</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>https://img9.doubanio.com/view/photo/s_ratio_poster/public/p1735642656.jpg</t>
+          <t>https://img9.doubanio.com/view/photo/s_ratio_poster/public/p2528965424.jpg</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>无敌破坏王</t>
+          <t>茶馆</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>瑞奇·莫尔</t>
+          <t>谢添</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>约翰、赖利、萨拉</t>
+          <t>于是之、郑榕、蓝天野</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>2012</t>
+          <t>1982</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>美国</t>
+          <t>中国大陆、中国大陆</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>喜剧、动画、奇幻、冒险</t>
+          <t>剧情、历史</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>8.7</t>
+          <t>9.6</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>561956人评价</t>
-        </is>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>迪士尼和皮克斯拿错剧本的产物。</t>
-        </is>
-      </c>
+          <t>162693人评价</t>
+        </is>
+      </c>
+      <c r="K140" t="inlineStr"/>
     </row>
     <row r="141" ht="30" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>https://movie.douban.com/subject/24750126/</t>
+          <t>https://movie.douban.com/subject/5989818/</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>https://img3.doubanio.com/view/photo/s_ratio_poster/public/p2584519452.jpg</t>
+          <t>https://img3.doubanio.com/view/photo/s_ratio_poster/public/p1675053073.jpg</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>荒蛮故事</t>
+          <t>萤火之森</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>达米安·斯兹弗隆</t>
+          <t>大森贵弘</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>达里奥、葛兰帝内提</t>
+          <t>佐仓绫音、内山昂辉</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>2011</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>阿根廷、西班牙</t>
+          <t>日本</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>剧情、喜剧、犯罪</t>
+          <t>剧情、爱情、动画、奇幻</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>8.8</t>
+          <t>8.9</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>457607人评价</t>
+          <t>559804人评价</t>
         </is>
       </c>
       <c r="K141" t="inlineStr">
         <is>
-          <t>始于荒诞，止于更荒诞。</t>
+          <t>触不到的恋人。</t>
         </is>
       </c>
     </row>
     <row r="142" ht="30" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>https://movie.douban.com/subject/1291578/</t>
+          <t>https://movie.douban.com/subject/25986180/</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>https://img1.doubanio.com/view/photo/s_ratio_poster/public/p1910895719.jpg</t>
+          <t>https://img1.doubanio.com/view/photo/s_ratio_poster/public/p2360940399.jpg</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>冰川时代</t>
+          <t>釜山行</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>卡洛斯·沙尔丹哈·克里斯·韦奇</t>
-        </is>
-      </c>
-      <c r="E142" t="inlineStr"/>
+          <t>延尚昊</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>孔侑、郑有美、马</t>
+        </is>
+      </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>2002</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>美国</t>
+          <t>韩国</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>喜剧、动画、冒险</t>
+          <t>动作、惊悚、灾难</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
@@ -8460,44 +8464,44 @@
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>636674人评价</t>
+          <t>1242251人评价</t>
         </is>
       </c>
       <c r="K142" t="inlineStr">
         <is>
-          <t>松鼠才是角儿。</t>
+          <t>揭露人性的丧尸题材力作。</t>
         </is>
       </c>
     </row>
     <row r="143" ht="30" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>https://movie.douban.com/subject/25773932/</t>
+          <t>https://movie.douban.com/subject/6307447/</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>https://img3.doubanio.com/view/photo/s_ratio_poster/public/p2220776342.jpg</t>
+          <t>https://img3.doubanio.com/view/photo/s_ratio_poster/public/p1800813767.jpg</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>爆裂鼓手</t>
+          <t>被解救的姜戈</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>达米恩·查泽雷</t>
+          <t>昆汀·塔伦蒂诺</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>迈尔斯、特勒</t>
+          <t>杰米、福克斯</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>2012</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
@@ -8507,168 +8511,164 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>剧情、音乐</t>
+          <t>剧情、动作、西部、冒险</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>8.7</t>
+          <t>8.8</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>610540人评价</t>
+          <t>631223人评价</t>
         </is>
       </c>
       <c r="K143" t="inlineStr">
         <is>
-          <t>这个世界从不善待努力的人，努力了也不一定会成功，但是知道自己在努力，就是活下去的动力。</t>
+          <t>热血沸腾，那个低俗、性感的无耻混蛋又来了。</t>
         </is>
       </c>
     </row>
     <row r="144" ht="30" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>https://movie.douban.com/subject/3011051/</t>
+          <t>https://movie.douban.com/subject/3287562/</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>https://img9.doubanio.com/view/photo/s_ratio_poster/public/p462470694.jpg</t>
+          <t>https://img1.doubanio.com/view/photo/s_ratio_poster/public/p792776858.jpg</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>恐怖游轮</t>
+          <t>神偷奶爸</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>克里斯托弗·史密斯</t>
-        </is>
-      </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>梅利莎、乔治</t>
-        </is>
-      </c>
+          <t>皮艾尔·柯芬·克里斯·雷纳德</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr"/>
       <c r="F144" t="inlineStr">
         <is>
-          <t>2009</t>
+          <t>2010</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>英国、澳大利亚</t>
+          <t>美国、法国</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>剧情、悬疑、惊悚</t>
+          <t>喜剧、动画、冒险</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>8.5</t>
+          <t>8.7</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>899173人评价</t>
+          <t>974839人评价</t>
         </is>
       </c>
       <c r="K144" t="inlineStr">
         <is>
-          <t>不要企图在重复中寻找已经失去的爱。</t>
+          <t>Mr. I Don't Care其实也有Care的时候。</t>
         </is>
       </c>
     </row>
     <row r="145" ht="30" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>https://movie.douban.com/subject/1292329/</t>
+          <t>https://movie.douban.com/subject/1828115/</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>https://img9.doubanio.com/view/photo/s_ratio_poster/public/p848381236.jpg</t>
+          <t>https://img9.doubanio.com/view/photo/s_ratio_poster/public/p453716305.jpg</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>牯岭街少年杀人事件</t>
+          <t>色，戒</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>杨德昌</t>
+          <t>李安</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>张震、杨静怡、张</t>
+          <t>梁朝伟、汤唯</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>1991</t>
+          <t>2007</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>中国台湾</t>
+          <t>中国台湾、中国大陆、美国、中国香港</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>剧情、犯罪</t>
+          <t>剧情、爱情、情色</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>8.9</t>
+          <t>8.7</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>316963人评价</t>
+          <t>853442人评价</t>
         </is>
       </c>
       <c r="K145" t="inlineStr">
         <is>
-          <t>弱者送给弱者的一刀。</t>
+          <t>假戏真情，爱欲深海</t>
         </is>
       </c>
     </row>
     <row r="146" ht="30" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>https://movie.douban.com/subject/1310177/</t>
+          <t>https://movie.douban.com/subject/4268598/</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>https://img1.doubanio.com/view/photo/s_ratio_poster/public/p456703618.jpg</t>
+          <t>https://img9.doubanio.com/view/photo/s_ratio_poster/public/p689520756.jpg</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>东京教父</t>
+          <t>告白</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>今敏</t>
+          <t>中岛哲也</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>江守彻、梅垣义明</t>
+          <t>松隆子、冈田将生</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>2003</t>
+          <t>2010</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
@@ -8678,117 +8678,121 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>剧情、喜剧、动画</t>
+          <t>剧情、悬疑</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>8.8</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>246683人评价</t>
-        </is>
-      </c>
-      <c r="K146" t="inlineStr"/>
+          <t>690254人评价</t>
+        </is>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>没有一人完全善，也没有一人完全恶。</t>
+        </is>
+      </c>
     </row>
     <row r="147" ht="30" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>https://movie.douban.com/subject/2209573/</t>
+          <t>https://movie.douban.com/subject/1307315/</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>https://img1.doubanio.com/view/photo/s_ratio_poster/public/p2434249040.jpg</t>
+          <t>https://img9.doubanio.com/view/photo/s_ratio_poster/public/p2532803206.jpg</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>贫民窟的百万富翁</t>
+          <t>哪吒闹海</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>丹尼·鲍尔·洛芙琳·坦丹</t>
+          <t>王树忱·严定宪</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>戴夫</t>
+          <t>梁正晖</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>2008</t>
+          <t>1979</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>英国</t>
+          <t>中国大陆</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>剧情、爱情</t>
+          <t>冒险、动画、奇幻</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>8.6</t>
+          <t>9.2</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>763478人评价</t>
+          <t>270227人评价</t>
         </is>
       </c>
       <c r="K147" t="inlineStr">
         <is>
-          <t>上帝之城+猜火车+阿甘正传+开心辞典=山寨富翁</t>
+          <t>想你时你在闹海。</t>
         </is>
       </c>
     </row>
     <row r="148" ht="30" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>https://movie.douban.com/subject/1307811/</t>
+          <t>https://movie.douban.com/subject/1297518/</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>https://img3.doubanio.com/view/photo/s_ratio_poster/public/p456676352.jpg</t>
+          <t>https://img1.doubanio.com/view/photo/s_ratio_poster/public/p648370300.jpg</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>魔女宅急便</t>
+          <t>九品芝麻官</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>宫崎骏</t>
+          <t>王晶</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>高山南、佐久间玲</t>
+          <t>周星驰、吴孟达</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>1989</t>
+          <t>1994</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>日本</t>
+          <t>中国香港、中国大陆</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>动画、奇幻、冒险</t>
+          <t>剧情、喜剧、古装</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
@@ -8798,158 +8802,154 @@
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>475867人评价</t>
-        </is>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>宫崎骏的电影总让人感觉世界是美好的，阳光明媚的。</t>
-        </is>
-      </c>
+          <t>712547人评价</t>
+        </is>
+      </c>
+      <c r="K148" t="inlineStr"/>
     </row>
     <row r="149" ht="30" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>https://movie.douban.com/subject/27059130/</t>
+          <t>https://movie.douban.com/subject/3072124/</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>https://img3.doubanio.com/view/photo/s_ratio_poster/public/p2505928032.jpg</t>
+          <t>https://img9.doubanio.com/view/photo/s_ratio_poster/public/p488255145.jpg</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>大佛普拉斯</t>
+          <t>玛丽和马克思</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>黄信尧</t>
+          <t>亚当·艾略特</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>庄益增、陈竹昇</t>
+          <t>托妮、科莱特、菲利</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2009</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>中国台湾</t>
+          <t>澳大利亚、美国</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>剧情、喜剧</t>
+          <t>剧情、喜剧、动画</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>8.7</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>484412人评价</t>
+          <t>430422人评价</t>
         </is>
       </c>
       <c r="K149" t="inlineStr">
         <is>
-          <t>人们可以登上月球，却永远无法探索人们内心的宇宙。</t>
+          <t>你是我最好的朋友，你是我唯一的朋友 。</t>
         </is>
       </c>
     </row>
     <row r="150" ht="30" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>https://movie.douban.com/subject/1292328/</t>
+          <t>https://movie.douban.com/subject/1303037/</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>https://img3.doubanio.com/view/photo/s_ratio_poster/public/p1982176012.jpg</t>
+          <t>https://img3.doubanio.com/view/photo/s_ratio_poster/public/p2249048907.jpg</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>东邪西毒</t>
+          <t>喜宴</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>王家卫</t>
+          <t>李安</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>张国荣、林青霞</t>
+          <t>赵文瑄、归亚蕾、郎</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>1994</t>
+          <t>1993</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>中国香港、中国台湾</t>
+          <t>中国台湾、美国</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>剧情、动作、爱情、武侠、古装</t>
+          <t>剧情、喜剧、爱情、同性、家庭</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>8.6</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>592828人评价</t>
+          <t>380973人评价</t>
         </is>
       </c>
       <c r="K150" t="inlineStr">
         <is>
-          <t>电影诗。</t>
+          <t>中国家庭的喜怒哀乐忍。</t>
         </is>
       </c>
     </row>
     <row r="151" ht="30" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>https://movie.douban.com/subject/1867345/</t>
+          <t>https://movie.douban.com/subject/1291545/</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>https://img3.doubanio.com/view/photo/s_ratio_poster/public/p2676812053.jpg</t>
+          <t>https://img9.doubanio.com/view/photo/s_ratio_poster/public/p692813374.jpg</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>遗愿清单</t>
+          <t>大鱼</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>罗伯·莱纳</t>
+          <t>蒂姆·波顿</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>杰克、尼科尔森、摩根</t>
+          <t>伊万、麦克格雷格、阿</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>2007</t>
+          <t>2003</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
@@ -8959,221 +8959,221 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>冒险、喜剧、剧情</t>
+          <t>剧情、家庭、奇幻、冒险</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>8.7</t>
+          <t>8.8</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>482662人评价</t>
+          <t>585323人评价</t>
         </is>
       </c>
       <c r="K151" t="inlineStr">
         <is>
-          <t>用剩余不多的时间，去燃烧整个生命。</t>
+          <t>抱着梦想而活着的人是幸福的，怀抱梦想而死去的人是不朽的。</t>
         </is>
       </c>
     </row>
     <row r="152" ht="30" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>https://movie.douban.com/subject/4848115/</t>
+          <t>https://movie.douban.com/subject/10463953/</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>https://img3.doubanio.com/view/photo/s_ratio_poster/public/p709670262.jpg</t>
+          <t>https://img3.doubanio.com/view/photo/s_ratio_poster/public/p2255040492.jpg</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>你看起来好像很好吃</t>
+          <t>模仿游戏</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>藤森雅也</t>
+          <t>莫滕·泰杜姆</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>山口胜平、爱河</t>
+          <t>本尼迪克特、康伯巴奇</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>2010</t>
+          <t>2014</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>日本</t>
+          <t>英国、美国</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>剧情、动画、儿童</t>
+          <t>剧情、传记、战争、同性</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>8.9</t>
+          <t>8.8</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>344276人评价</t>
+          <t>669620人评价</t>
         </is>
       </c>
       <c r="K152" t="inlineStr">
         <is>
-          <t>感情不分食草或者食肉。</t>
+          <t>他给机器起名“克里斯托弗”，因为这是他初恋的名字。</t>
         </is>
       </c>
     </row>
     <row r="153" ht="30" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>https://movie.douban.com/subject/1308857/</t>
+          <t>https://movie.douban.com/subject/4920389/</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>https://img9.doubanio.com/view/photo/s_ratio_poster/public/p2363208684.jpg</t>
+          <t>https://img3.doubanio.com/view/photo/s_ratio_poster/public/p2516578307.jpg</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>可可西里</t>
+          <t>头号玩家</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>陆川</t>
+          <t>史蒂文·斯皮尔伯格</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>多布杰、张磊、亓亮</t>
+          <t>泰伊、谢里丹</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>2004</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>中国大陆、中国香港</t>
+          <t>美国</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>剧情、犯罪</t>
+          <t>动作、科幻、冒险</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>8.9</t>
+          <t>8.6</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>314015人评价</t>
+          <t>1409329人评价</t>
         </is>
       </c>
       <c r="K153" t="inlineStr">
         <is>
-          <t>坚硬的信仰。</t>
+          <t>写给影迷，动漫迷和游戏迷的一封情书。</t>
         </is>
       </c>
     </row>
     <row r="154" ht="30" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>https://movie.douban.com/subject/1978709/</t>
+          <t>https://movie.douban.com/subject/1291557/</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>https://img9.doubanio.com/view/photo/s_ratio_poster/public/p2549648344.jpg</t>
+          <t>https://img9.doubanio.com/view/photo/s_ratio_poster/public/p1910828286.jpg</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>黑天鹅</t>
+          <t>花样年华</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>达伦·阿罗诺夫斯基</t>
+          <t>王家卫</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>娜塔莉、波特曼</t>
+          <t>梁朝伟、张曼玉</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>2010</t>
+          <t>2000</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>美国</t>
+          <t>中国香港</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>剧情、惊悚</t>
+          <t>剧情、爱情</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>8.6</t>
+          <t>8.8</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>799415人评价</t>
+          <t>637826人评价</t>
         </is>
       </c>
       <c r="K154" t="inlineStr">
         <is>
-          <t>黑暗之美。</t>
+          <t>偷情本没有这样美。</t>
         </is>
       </c>
     </row>
     <row r="155" ht="30" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>https://movie.douban.com/subject/1293908/</t>
+          <t>https://movie.douban.com/subject/10533913/</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>https://img1.doubanio.com/view/photo/s_ratio_poster/public/p2170238828.jpg</t>
+          <t>https://img9.doubanio.com/view/photo/s_ratio_poster/public/p2231021196.jpg</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>城市之光</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr"/>
-      <c r="E155" t="inlineStr">
-        <is>
-          <t>查理、卓别林、弗吉尼亚</t>
-        </is>
-      </c>
+          <t>头脑特工队</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>彼特·道格特·罗纳尔多·德尔·卡门</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr"/>
       <c r="F155" t="inlineStr">
         <is>
-          <t>1931</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
@@ -9183,335 +9183,335 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>喜剧、剧情、爱情</t>
+          <t>喜剧、动画、冒险</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>9.3</t>
+          <t>8.8</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>153816人评价</t>
+          <t>644420人评价</t>
         </is>
       </c>
       <c r="K155" t="inlineStr">
         <is>
-          <t>永远的小人物，伟大的卓别林。</t>
+          <t>愿我们都不用长大，每一座城堡都能永远存在。</t>
         </is>
       </c>
     </row>
     <row r="156" ht="30" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>https://movie.douban.com/subject/3075287/</t>
+          <t>https://movie.douban.com/subject/1316510/</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>https://img9.doubanio.com/view/photo/s_ratio_poster/public/p988260245.jpg</t>
+          <t>https://img3.doubanio.com/view/photo/s_ratio_poster/public/p2609063922.jpg</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>源代码</t>
+          <t>射雕英雄传之东成西就</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>邓肯·琼斯</t>
+          <t>刘镇伟</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>杰克、吉伦哈尔</t>
+          <t>梁朝伟、林青霞</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>2011</t>
+          <t>1993</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>美国、加拿大</t>
+          <t>中国香港</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>科幻、悬疑、惊悚</t>
+          <t>喜剧、奇幻、武侠、古装</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>8.5</t>
+          <t>8.7</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>859243人评价</t>
+          <t>661240人评价</t>
         </is>
       </c>
       <c r="K156" t="inlineStr">
         <is>
-          <t>邓肯·琼斯继《月球》之后再度奉献出一部精彩绝伦的科幻佳作。</t>
+          <t xml:space="preserve">百看不厌。 </t>
         </is>
       </c>
     </row>
     <row r="157" ht="30" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>https://movie.douban.com/subject/1292401/</t>
+          <t>https://movie.douban.com/subject/1306861/</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>https://img1.doubanio.com/view/photo/s_ratio_poster/public/p475600770.jpg</t>
+          <t>https://img9.doubanio.com/view/photo/s_ratio_poster/public/p652417775.jpg</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>真爱至上</t>
+          <t>我是山姆</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>理查德·柯蒂斯</t>
-        </is>
-      </c>
-      <c r="E157" t="inlineStr">
-        <is>
-          <t>休、格兰特、连姆</t>
-        </is>
-      </c>
+          <t>杰茜·尼尔森</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr"/>
       <c r="F157" t="inlineStr">
         <is>
-          <t>2003</t>
+          <t>2001</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>英国、美国、法国</t>
+          <t>美国</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>喜剧、剧情、爱情</t>
+          <t>剧情、家庭</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>8.5</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>757507人评价</t>
+          <t>349276人评价</t>
         </is>
       </c>
       <c r="K157" t="inlineStr">
         <is>
-          <t>爱，是个动词。</t>
+          <t>爱并不需要智商 。</t>
         </is>
       </c>
     </row>
     <row r="158" ht="30" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>https://movie.douban.com/subject/25980443/</t>
+          <t>https://movie.douban.com/subject/1295399/</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>https://img9.doubanio.com/view/photo/s_ratio_poster/public/p2421855655.jpg</t>
+          <t>https://img9.doubanio.com/view/photo/s_ratio_poster/public/p2215886505.jpg</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>海边的曼彻斯特</t>
+          <t>七武士</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>肯尼斯·罗纳根</t>
+          <t>黑泽明</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>卡西、阿弗莱克</t>
+          <t>三船敏郎、志村乔</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>1954</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>美国</t>
+          <t>日本</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>剧情、家庭</t>
+          <t>动作、冒险、剧情</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>8.6</t>
+          <t>9.3</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>572595人评价</t>
+          <t>206415人评价</t>
         </is>
       </c>
       <c r="K158" t="inlineStr">
         <is>
-          <t>我们都有权利不与自己的过去和解。</t>
+          <t>时代悲歌。</t>
         </is>
       </c>
     </row>
     <row r="159" ht="30" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>https://movie.douban.com/subject/1291992/</t>
+          <t>https://movie.douban.com/subject/4917726/</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>https://img9.doubanio.com/view/photo/s_ratio_poster/public/p1910924635.jpg</t>
+          <t>https://img3.doubanio.com/view/photo/s_ratio_poster/public/p1374786017.jpg</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>末路狂花</t>
+          <t>阳光姐妹淘</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>雷德利·斯科特</t>
+          <t>姜炯哲</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>吉娜、戴维斯、苏</t>
+          <t>沈恩京、闵孝琳</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>1991</t>
+          <t>2011</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>美国、英国、法国</t>
+          <t>韩国</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>犯罪、剧情、惊悚</t>
+          <t>剧情、喜剧</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>8.9</t>
+          <t>8.8</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>277679人评价</t>
+          <t>603103人评价</t>
         </is>
       </c>
       <c r="K159" t="inlineStr">
         <is>
-          <t>没有了退路，只好飞向自由。</t>
+          <t xml:space="preserve">再多各自牛逼的时光，也比不上一起傻逼的岁月。 </t>
         </is>
       </c>
     </row>
     <row r="160" ht="30" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>https://movie.douban.com/subject/5300054/</t>
+          <t>https://movie.douban.com/subject/26325320/</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>https://img3.doubanio.com/view/photo/s_ratio_poster/public/p2549558913.jpg</t>
+          <t>https://img1.doubanio.com/view/photo/s_ratio_poster/public/p2398141939.jpg</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>波西米亚狂想曲</t>
+          <t>血战钢锯岭</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>布莱恩·辛格</t>
+          <t>梅尔·吉布森</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>拉米、马雷克、本、哈</t>
+          <t>安德鲁、加菲尔德</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>英国、美国</t>
+          <t>澳大利亚、美国</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>剧情、传记、同性、音乐</t>
+          <t>剧情、传记、历史、战争</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>8.6</t>
+          <t>8.7</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>628469人评价</t>
-        </is>
-      </c>
-      <c r="K160" t="inlineStr"/>
+          <t>803989人评价</t>
+        </is>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>优秀的战争片不会美化战场，不会粉饰死亡，不会矮化敌人，不会无视常识，最重要的，不会宣扬战争。</t>
+        </is>
+      </c>
     </row>
     <row r="161" ht="30" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>https://movie.douban.com/subject/1291870/</t>
+          <t>https://movie.douban.com/subject/1293181/</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>https://img3.doubanio.com/view/photo/s_ratio_poster/public/p2353324612.jpg</t>
+          <t>https://img9.doubanio.com/view/photo/s_ratio_poster/public/p1021883305.jpg</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>雨人</t>
+          <t>惊魂记</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>巴瑞·莱文森</t>
+          <t>阿尔弗雷德·希区柯克</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>达斯汀、霍夫曼</t>
+          <t>安东尼、博金斯</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>1988</t>
+          <t>1960</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
@@ -9521,269 +9521,273 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>剧情</t>
+          <t>悬疑、惊悚、恐怖</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>8.7</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>414796人评价</t>
+          <t>311551人评价</t>
         </is>
       </c>
       <c r="K161" t="inlineStr">
         <is>
-          <t>生活在自己的世界里，也可以让周围的人显得可笑和渺小。</t>
+          <t>故事的反转与反转，分裂电影的始祖。</t>
         </is>
       </c>
     </row>
     <row r="162" ht="30" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>https://movie.douban.com/subject/1303394/</t>
+          <t>https://movie.douban.com/subject/21360417/</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>https://img3.doubanio.com/view/photo/s_ratio_poster/public/p2570901292.jpg</t>
+          <t>https://img9.doubanio.com/view/photo/s_ratio_poster/public/p2016930906.jpg</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>青蛇</t>
+          <t>恐怖直播</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>徐克</t>
+          <t>金秉祐</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>张曼玉、王祖贤</t>
+          <t>河正宇、李璟荣</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>1993</t>
+          <t>2013</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>中国香港、中国大陆</t>
+          <t>韩国</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>剧情、爱情、奇幻、古装</t>
+          <t>剧情、犯罪、悬疑</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>8.6</t>
+          <t>8.7</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>544757人评价</t>
+          <t>674673人评价</t>
         </is>
       </c>
       <c r="K162" t="inlineStr">
         <is>
-          <t>人生如此，浮生如斯。谁人言，花彼岸，此生情长意短。谁都是不懂爱的罢了。</t>
+          <t>恐怖分子的“秋菊打官司”。</t>
         </is>
       </c>
     </row>
     <row r="163" ht="30" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>https://movie.douban.com/subject/4739952/</t>
+          <t>https://movie.douban.com/subject/1302467/</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>https://img3.doubanio.com/view/photo/s_ratio_poster/public/p1505312273.jpg</t>
+          <t>https://img1.doubanio.com/view/photo/s_ratio_poster/public/p443461818.jpg</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>初恋这件小事</t>
+          <t>黑客帝国3：矩阵革命</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>普特鹏·普罗萨卡·那·萨克那卡林·华森·波克彭</t>
+          <t>拉娜·沃卓斯基·莉莉·沃卓斯基</t>
         </is>
       </c>
       <c r="E163" t="inlineStr"/>
       <c r="F163" t="inlineStr">
         <is>
-          <t>2010</t>
+          <t>2003</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>泰国</t>
+          <t>美国</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>剧情、喜剧、爱情</t>
+          <t>动作、科幻</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>8.5</t>
+          <t>8.8</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t>999676人评价</t>
+          <t>461053人评价</t>
         </is>
       </c>
       <c r="K163" t="inlineStr">
         <is>
-          <t>黑小鸭速效美白记。</t>
+          <t>不得不说，《黑客帝国》系列是商业片与科幻、哲学完美结合的典范。</t>
         </is>
       </c>
     </row>
     <row r="164" ht="30" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>https://movie.douban.com/subject/1302827/</t>
+          <t>https://movie.douban.com/subject/26683290/</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>https://img3.doubanio.com/view/photo/s_ratio_poster/public/p792257137.jpg</t>
+          <t>https://img3.doubanio.com/view/photo/s_ratio_poster/public/p2395733377.jpg</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>人工智能</t>
+          <t>你的名字。</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>史蒂文·斯皮尔伯格</t>
+          <t>新海诚</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>海利、乔、奥斯蒙</t>
+          <t>神木隆之介、上</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>2001</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>美国、英国</t>
+          <t>日本</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>剧情、科幻</t>
+          <t>剧情、爱情、动画</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>8.7</t>
+          <t>8.5</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>461336人评价</t>
+          <t>1454423人评价</t>
         </is>
       </c>
       <c r="K164" t="inlineStr">
         <is>
-          <t>对爱的执着，可以超越一切。</t>
+          <t>穿越错位的时空，仰望陨落的星辰，你没留下你的名字，我却无法忘记那句“我爱你”。</t>
         </is>
       </c>
     </row>
     <row r="165" ht="30" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>https://movie.douban.com/subject/25934014/</t>
+          <t>https://movie.douban.com/subject/26611804/</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>https://img3.doubanio.com/view/photo/s_ratio_poster/public/p2901102612.jpg</t>
+          <t>https://img9.doubanio.com/view/photo/s_ratio_poster/public/p2502943384.jpg</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>爱乐之城</t>
+          <t>三块广告牌</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>达米恩·查泽雷</t>
+          <t>马丁·麦克唐纳</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>瑞恩、高斯林</t>
+          <t>弗兰西斯、麦克多蒙德</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>美国</t>
+          <t>英国、美国</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>剧情、爱情、歌舞</t>
+          <t>剧情、犯罪</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>8.4</t>
+          <t>8.7</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>978805人评价</t>
-        </is>
-      </c>
-      <c r="K165" t="inlineStr"/>
+          <t>848994人评价</t>
+        </is>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>怼天怼地，你走后，她与世界为敌。</t>
+        </is>
+      </c>
     </row>
     <row r="166" ht="30" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>https://movie.douban.com/subject/1309163/</t>
+          <t>https://movie.douban.com/subject/1417598/</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>https://img9.doubanio.com/view/photo/s_ratio_poster/public/p483604864.jpg</t>
+          <t>https://img9.doubanio.com/view/photo/s_ratio_poster/public/p726839485.jpg</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>恋恋笔记本</t>
+          <t>电锯惊魂</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>尼克·卡索维茨</t>
+          <t>詹姆斯·温</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>瑞恩、高斯林</t>
+          <t>雷、沃纳尔、加利、艾</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
@@ -9798,178 +9802,174 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>剧情、爱情</t>
+          <t>悬疑、惊悚、恐怖</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>8.5</t>
+          <t>8.7</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>693315人评价</t>
+          <t>556595人评价</t>
         </is>
       </c>
       <c r="K166" t="inlineStr">
         <is>
-          <t xml:space="preserve">爱情没有那么多借口，如果不能圆满，只能说明爱的不够。 </t>
+          <t>真相就在眼前。</t>
         </is>
       </c>
     </row>
     <row r="167" ht="30" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>https://movie.douban.com/subject/1291844/</t>
+          <t>https://movie.douban.com/subject/25917973/</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>https://img9.doubanio.com/view/photo/s_ratio_poster/public/p1910909085.jpg</t>
+          <t>https://img9.doubanio.com/view/photo/s_ratio_poster/public/p2276780256.jpg</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>终结者2：审判日</t>
+          <t>心迷宫</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>詹姆斯·卡梅隆</t>
+          <t>忻钰坤</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>阿诺、施瓦辛格</t>
+          <t>霍卫民、王笑天</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>1991</t>
+          <t>2014</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>美国、法国</t>
+          <t>中国大陆</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>动作、科幻</t>
+          <t>剧情、犯罪、悬疑</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>8.8</t>
+          <t>8.7</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>352656人评价</t>
+          <t>547801人评价</t>
         </is>
       </c>
       <c r="K167" t="inlineStr">
         <is>
-          <t>少见的超越首部的续集，动作片中的经典。</t>
+          <t>荒诞讽刺，千奇百巧，抽丝剥茧，百转千回。</t>
         </is>
       </c>
     </row>
     <row r="168" ht="30" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>https://movie.douban.com/subject/1296909/</t>
+          <t>https://movie.douban.com/subject/1793929/</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>https://img3.doubanio.com/view/photo/s_ratio_poster/public/p2399597512.jpg</t>
+          <t>https://img3.doubanio.com/view/photo/s_ratio_poster/public/p2166160837.jpg</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>虎口脱险</t>
+          <t>达拉斯买家俱乐部</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>杰拉尔·乌里</t>
+          <t>让·马克·瓦雷</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>路易、德、菲耐斯</t>
+          <t>马修、麦康纳</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>1966</t>
+          <t>2013</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>法国、英国</t>
+          <t>美国</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>喜剧、战争</t>
+          <t>剧情、传记、同性</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>8.9</t>
+          <t>8.8</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>267719人评价</t>
+          <t>467013人评价</t>
         </is>
       </c>
       <c r="K168" t="inlineStr">
         <is>
-          <t>永远看不腻的喜剧。</t>
+          <t>Jared Leto的腿比女人还美！</t>
         </is>
       </c>
     </row>
     <row r="169" ht="30" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>https://movie.douban.com/subject/3592854/</t>
+          <t>https://movie.douban.com/subject/1907966/</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>https://img3.doubanio.com/view/photo/s_ratio_poster/public/p2236181653.jpg</t>
+          <t>https://img3.doubanio.com/view/photo/s_ratio_poster/public/p1867084027.jpg</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>疯狂的麦克斯4：狂暴之路</t>
+          <t>疯狂原始人</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>乔治·米勒</t>
-        </is>
-      </c>
-      <c r="E169" t="inlineStr">
-        <is>
-          <t>汤姆、哈迪、查理兹、塞</t>
-        </is>
-      </c>
+          <t>科克·德·米科·克里斯·桑德斯</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr"/>
       <c r="F169" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2013</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>澳大利亚、美国</t>
+          <t>美国</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>动作、科幻、冒险</t>
+          <t>喜剧、动画、冒险</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
@@ -9979,221 +9979,221 @@
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>548963人评价</t>
+          <t>863201人评价</t>
         </is>
       </c>
       <c r="K169" t="inlineStr">
         <is>
-          <t>“多么美好的一天！”轰轰轰砰咚，啪哒哒哒轰隆隆，磅~</t>
+          <t>老少皆宜，这就是好莱坞动画的魅力。</t>
         </is>
       </c>
     </row>
     <row r="170" ht="30" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>https://movie.douban.com/subject/1297880/</t>
+          <t>https://movie.douban.com/subject/1578507/</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>https://img9.doubanio.com/view/photo/s_ratio_poster/public/p2174804034.jpg</t>
+          <t>https://img3.doubanio.com/view/photo/s_ratio_poster/public/p792223507.jpg</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>芙蓉镇</t>
+          <t>谍影重重3</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>谢晋</t>
+          <t>保罗·格林格拉斯</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>刘晓庆、姜文、郑在石</t>
+          <t>马特、达蒙</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>1987</t>
+          <t>2007</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>中国大陆</t>
+          <t>美国、德国、法国、英国</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>剧情、爱情</t>
+          <t>动作、悬疑、惊悚</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>9.3</t>
+          <t>8.8</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>152335人评价</t>
-        </is>
-      </c>
-      <c r="K170" t="inlineStr"/>
+          <t>432614人评价</t>
+        </is>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>像吃了苏打饼一样干脆的电影。</t>
+        </is>
+      </c>
     </row>
     <row r="171" ht="30" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>https://movie.douban.com/subject/1291879/</t>
+          <t>https://movie.douban.com/subject/1297574/</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>https://img2.doubanio.com/view/photo/s_ratio_poster/public/p1598883511.jpg</t>
+          <t>https://img3.doubanio.com/view/photo/s_ratio_poster/public/p2504997087.jpg</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>罗生门</t>
+          <t>英雄本色</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>黑泽明</t>
+          <t>吴宇森</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>三船敏郎、京町子</t>
+          <t>周润发、狄龙、张国</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>1950</t>
+          <t>1986</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>日本</t>
+          <t>中国香港</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>剧情、犯罪、悬疑</t>
+          <t>剧情、动作、犯罪</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>8.8</t>
+          <t>8.6</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>326339人评价</t>
+          <t>559867人评价</t>
         </is>
       </c>
       <c r="K171" t="inlineStr">
         <is>
-          <t>人生的N种可能性。</t>
+          <t xml:space="preserve">英雄泪短，兄弟情长。 </t>
         </is>
       </c>
     </row>
     <row r="172" ht="30" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>https://movie.douban.com/subject/1292287/</t>
+          <t>https://movie.douban.com/subject/1292208/</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>https://img1.doubanio.com/view/photo/s_ratio_poster/public/p1421018669.jpg</t>
+          <t>https://img1.doubanio.com/view/photo/s_ratio_poster/public/p455677490.jpg</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>新龙门客栈</t>
+          <t>上帝之城</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>李惠民</t>
-        </is>
-      </c>
-      <c r="E172" t="inlineStr">
-        <is>
-          <t>张曼玉、林青霞</t>
-        </is>
-      </c>
+          <t>费尔南多·梅里尔斯·卡迪亚·兰德</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr"/>
       <c r="F172" t="inlineStr">
         <is>
-          <t>1992</t>
+          <t>2002</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>中国香港、中国大陆</t>
+          <t>巴西、法国</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>动作、爱情、武侠、古装</t>
+          <t>犯罪、剧情</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>8.7</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>460633人评价</t>
+          <t>309303人评价</t>
         </is>
       </c>
       <c r="K172" t="inlineStr">
         <is>
-          <t>嬉笑怒骂，调风动月。</t>
+          <t>被上帝抛弃了的上帝之城。</t>
         </is>
       </c>
     </row>
     <row r="173" ht="30" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>https://movie.douban.com/subject/1438652/</t>
+          <t>https://movie.douban.com/subject/27119724/</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>https://img3.doubanio.com/view/photo/s_ratio_poster/public/p1086394013.jpg</t>
+          <t>https://img9.doubanio.com/view/photo/s_ratio_poster/public/p2567198874.jpg</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>无耻混蛋</t>
+          <t>小丑</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>昆汀·塔伦蒂诺</t>
+          <t>托德·菲利普斯</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>布拉德、皮特</t>
+          <t>杰昆、菲尼克斯</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>2009</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>德国、美国</t>
+          <t>美国、加拿大</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>剧情、犯罪</t>
+          <t>剧情、犯罪、惊悚</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
@@ -10203,252 +10203,4373 @@
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>497781人评价</t>
-        </is>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>昆汀同学越来越变态了，比北野武还杜琪峰。</t>
-        </is>
-      </c>
+          <t>1041766人评价</t>
+        </is>
+      </c>
+      <c r="K173" t="inlineStr"/>
     </row>
     <row r="174" ht="30" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>https://movie.douban.com/subject/1959877/</t>
+          <t>https://movie.douban.com/subject/1300374/</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>https://img1.doubanio.com/view/photo/s_ratio_poster/public/p2627847859.jpg</t>
+          <t>https://img2.doubanio.com/view/photo/s_ratio_poster/public/p767586451.jpg</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>崖上的波妞</t>
+          <t>绿里奇迹</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>宫崎骏</t>
+          <t>弗兰克·德拉邦特</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>奈良柚莉爱、土井洋辉</t>
+          <t>汤姆、汉克斯</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>2008</t>
+          <t>1999</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>日本</t>
+          <t>美国</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>动画、奇幻、冒险</t>
+          <t>犯罪、剧情、奇幻、悬疑</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>8.6</t>
+          <t>8.9</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>518240人评价</t>
-        </is>
-      </c>
-      <c r="K174" t="inlineStr"/>
+          <t>347164人评价</t>
+        </is>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>天使暂时离开。</t>
+        </is>
+      </c>
     </row>
     <row r="175" ht="30" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>https://movie.douban.com/subject/1300117/</t>
+          <t>https://movie.douban.com/subject/1291585/</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>https://img9.doubanio.com/view/photo/s_ratio_poster/public/p2195672555.jpg</t>
+          <t>https://img3.doubanio.com/view/photo/s_ratio_poster/public/p1917567652.jpg</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>千钧一发</t>
+          <t>风之谷</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>安德鲁·尼科尔</t>
+          <t>宫崎骏</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>伊桑、霍克、乌玛</t>
+          <t>岛本须美、松田洋治</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>1997</t>
+          <t>1984</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>美国</t>
+          <t>日本</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>剧情、科幻、惊悚</t>
+          <t>动画、奇幻、冒险</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>8.8</t>
+          <t>8.9</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>313249人评价</t>
+          <t>364673人评价</t>
         </is>
       </c>
       <c r="K175" t="inlineStr">
         <is>
-          <t>一部能引人思考的科幻励志片。</t>
+          <t>动画片的圣经。</t>
         </is>
       </c>
     </row>
     <row r="176" ht="30" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
+          <t>https://movie.douban.com/subject/10808442/</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>https://img1.doubanio.com/view/photo/s_ratio_poster/public/p2074715729.jpg</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>爱在午夜降临前</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>理查德·林克莱特</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>伊桑、霍克</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>美国、希腊</t>
+        </is>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>剧情、爱情</t>
+        </is>
+      </c>
+      <c r="I176" t="inlineStr">
+        <is>
+          <t>8.9</t>
+        </is>
+      </c>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>421646人评价</t>
+        </is>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>所谓爱情，就是话唠一路，都不会心生腻烦，彼此嫌弃。</t>
+        </is>
+      </c>
+    </row>
+    <row r="177" ht="30" customHeight="1">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>https://movie.douban.com/subject/25895901/</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>https://img3.doubanio.com/view/photo/s_ratio_poster/public/p2603364117.jpg</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>海街日记</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>是枝裕和</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>绫濑遥、长泽雅美</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>日本</t>
+        </is>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>剧情、家庭</t>
+        </is>
+      </c>
+      <c r="I177" t="inlineStr">
+        <is>
+          <t>8.8</t>
+        </is>
+      </c>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>467321人评价</t>
+        </is>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>是枝裕和的家庭习作。</t>
+        </is>
+      </c>
+    </row>
+    <row r="178" ht="30" customHeight="1">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>https://movie.douban.com/subject/1295409/</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>https://img1.doubanio.com/view/photo/s_ratio_poster/public/p2597918718.jpg</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>纵横四海</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>吴宇森</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>周润发、张国荣</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>1991</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>中国香港</t>
+        </is>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>剧情、喜剧、动作、犯罪</t>
+        </is>
+      </c>
+      <c r="I178" t="inlineStr">
+        <is>
+          <t>8.8</t>
+        </is>
+      </c>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>440231人评价</t>
+        </is>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>香港浪漫主义警匪动作片的巅峰之作。</t>
+        </is>
+      </c>
+    </row>
+    <row r="179" ht="30" customHeight="1">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>https://movie.douban.com/subject/1291822/</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>https://img3.doubanio.com/view/photo/s_ratio_poster/public/p470419493.jpg</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>卢旺达饭店</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>特瑞·乔治</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>唐、钱德尔、苏菲、奥</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>2004</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>英国、南非、意大利、美国</t>
+        </is>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>剧情、传记、历史、战争</t>
+        </is>
+      </c>
+      <c r="I179" t="inlineStr">
+        <is>
+          <t>8.9</t>
+        </is>
+      </c>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>340829人评价</t>
+        </is>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>当这个世界闭上双眼，他却敞开了怀抱。</t>
+        </is>
+      </c>
+    </row>
+    <row r="180" ht="30" customHeight="1">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>https://movie.douban.com/subject/24733428/</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>https://img1.doubanio.com/view/photo/s_ratio_poster/public/p2595591069.jpg</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>心灵奇旅</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>彼特·道格特·凯普·鲍尔斯</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>杰米</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>美国</t>
+        </is>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>动画、奇幻、音乐</t>
+        </is>
+      </c>
+      <c r="I180" t="inlineStr">
+        <is>
+          <t>8.7</t>
+        </is>
+      </c>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>1025698人评价</t>
+        </is>
+      </c>
+      <c r="K180" t="inlineStr"/>
+    </row>
+    <row r="181" ht="30" customHeight="1">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>https://movie.douban.com/subject/1307856/</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>https://img3.doubanio.com/view/photo/s_ratio_poster/public/p2505048077.jpg</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>背靠背，脸对脸</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>黄建新·杨亚洲</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>牛振华</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>1994</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>中国大陆、中国香港</t>
+        </is>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>剧情</t>
+        </is>
+      </c>
+      <c r="I181" t="inlineStr">
+        <is>
+          <t>9.5</t>
+        </is>
+      </c>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>145081人评价</t>
+        </is>
+      </c>
+      <c r="K181" t="inlineStr"/>
+    </row>
+    <row r="182" ht="30" customHeight="1">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>https://movie.douban.com/subject/1862151/</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>https://img3.doubanio.com/view/photo/s_ratio_poster/public/p712241453.jpg</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>疯狂的石头</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>宁浩</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>郭涛、刘桦、连晋</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>中国大陆、中国香港</t>
+        </is>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>喜剧、犯罪</t>
+        </is>
+      </c>
+      <c r="I182" t="inlineStr">
+        <is>
+          <t>8.6</t>
+        </is>
+      </c>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>853969人评价</t>
+        </is>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>中国版《两杆大烟枪》。</t>
+        </is>
+      </c>
+    </row>
+    <row r="183" ht="30" customHeight="1">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>https://movie.douban.com/subject/1304447/</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>https://img3.doubanio.com/view/photo/s_ratio_poster/public/p641688453.jpg</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>记忆碎片</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>克里斯托弗·诺兰</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>盖、皮尔斯</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>美国</t>
+        </is>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>犯罪、剧情、悬疑、惊悚</t>
+        </is>
+      </c>
+      <c r="I183" t="inlineStr">
+        <is>
+          <t>8.7</t>
+        </is>
+      </c>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>622868人评价</t>
+        </is>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>一个针管引发的血案。</t>
+        </is>
+      </c>
+    </row>
+    <row r="184" ht="30" customHeight="1">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>https://movie.douban.com/subject/1293460/</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>https://img9.doubanio.com/view/photo/s_ratio_poster/public/p1612355875.jpg</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>雨中曲</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>斯坦利·多南·吉恩·凯利</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>吉恩</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>1952</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>美国</t>
+        </is>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>喜剧、歌舞、爱情</t>
+        </is>
+      </c>
+      <c r="I184" t="inlineStr">
+        <is>
+          <t>9.1</t>
+        </is>
+      </c>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>237135人评价</t>
+        </is>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>骨灰级歌舞片。</t>
+        </is>
+      </c>
+    </row>
+    <row r="185" ht="30" customHeight="1">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>https://movie.douban.com/subject/1292226/</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>https://img9.doubanio.com/view/photo/s_ratio_poster/public/p2560717825.jpg</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>2001太空漫游</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>斯坦利·库布里克</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>凯尔、杜拉</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>1968</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>英国、美国</t>
+        </is>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>科幻、惊悚、冒险</t>
+        </is>
+      </c>
+      <c r="I185" t="inlineStr">
+        <is>
+          <t>8.9</t>
+        </is>
+      </c>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>347509人评价</t>
+        </is>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>现代科幻电影的开山之作，最伟大导演的最伟大影片。</t>
+        </is>
+      </c>
+    </row>
+    <row r="186" ht="30" customHeight="1">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>https://movie.douban.com/subject/1307106/</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>https://img1.doubanio.com/view/photo/s_ratio_poster/public/p958008320.jpg</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>无间道2</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>刘伟强·麦兆辉</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>陈冠希、余文乐、曾</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>2003</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>中国香港</t>
+        </is>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>剧情、犯罪、惊悚</t>
+        </is>
+      </c>
+      <c r="I186" t="inlineStr">
+        <is>
+          <t>8.7</t>
+        </is>
+      </c>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>501234人评价</t>
+        </is>
+      </c>
+      <c r="K186" t="inlineStr"/>
+    </row>
+    <row r="187" ht="30" customHeight="1">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>https://movie.douban.com/subject/3792799/</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>https://img2.doubanio.com/view/photo/s_ratio_poster/public/p456666151.jpg</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>岁月神偷</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>罗启锐</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>吴君如、任达华、钟绍</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>中国香港、中国大陆</t>
+        </is>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>剧情、家庭</t>
+        </is>
+      </c>
+      <c r="I187" t="inlineStr">
+        <is>
+          <t>8.7</t>
+        </is>
+      </c>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>585487人评价</t>
+        </is>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>岁月流逝，来日可追。</t>
+        </is>
+      </c>
+    </row>
+    <row r="188" ht="30" customHeight="1">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>https://movie.douban.com/subject/27622447/</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>https://img9.doubanio.com/view/photo/s_ratio_poster/public/p2530599636.jpg</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>小偷家族</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>是枝裕和</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>中川雅也、安藤樱</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>日本</t>
+        </is>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>剧情、犯罪、家庭</t>
+        </is>
+      </c>
+      <c r="I188" t="inlineStr">
+        <is>
+          <t>8.7</t>
+        </is>
+      </c>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>837286人评价</t>
+        </is>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>我们组成了家。</t>
+        </is>
+      </c>
+    </row>
+    <row r="189" ht="30" customHeight="1">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>https://movie.douban.com/subject/1959195/</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>https://img9.doubanio.com/view/photo/s_ratio_poster/public/p2603716224.jpg</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>忠犬八公物语</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>神山征二郎</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>仲代达矢</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>1987</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>日本</t>
+        </is>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>剧情</t>
+        </is>
+      </c>
+      <c r="I189" t="inlineStr">
+        <is>
+          <t>9.2</t>
+        </is>
+      </c>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>202369人评价</t>
+        </is>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>养狗三日，便会对你终其一生。</t>
+        </is>
+      </c>
+    </row>
+    <row r="190" ht="30" customHeight="1">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>https://movie.douban.com/subject/6534248/</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>https://img9.doubanio.com/view/photo/s_ratio_poster/public/p1735642656.jpg</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>无敌破坏王</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>瑞奇·莫尔</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>约翰、赖利、萨拉</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>美国</t>
+        </is>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>喜剧、动画、奇幻、冒险</t>
+        </is>
+      </c>
+      <c r="I190" t="inlineStr">
+        <is>
+          <t>8.7</t>
+        </is>
+      </c>
+      <c r="J190" t="inlineStr">
+        <is>
+          <t>562314人评价</t>
+        </is>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>迪士尼和皮克斯拿错剧本的产物。</t>
+        </is>
+      </c>
+    </row>
+    <row r="191" ht="30" customHeight="1">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>https://movie.douban.com/subject/24750126/</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>https://img3.doubanio.com/view/photo/s_ratio_poster/public/p2584519452.jpg</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>荒蛮故事</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>达米安·斯兹弗隆</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>达里奥、葛兰帝内提</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>2014</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>阿根廷、西班牙</t>
+        </is>
+      </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>剧情、喜剧、犯罪</t>
+        </is>
+      </c>
+      <c r="I191" t="inlineStr">
+        <is>
+          <t>8.8</t>
+        </is>
+      </c>
+      <c r="J191" t="inlineStr">
+        <is>
+          <t>457848人评价</t>
+        </is>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>始于荒诞，止于更荒诞。</t>
+        </is>
+      </c>
+    </row>
+    <row r="192" ht="30" customHeight="1">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>https://movie.douban.com/subject/1291578/</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>https://img1.doubanio.com/view/photo/s_ratio_poster/public/p1910895719.jpg</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>冰川时代</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>卡洛斯·沙尔丹哈·克里斯·韦奇</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr"/>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>2002</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>美国</t>
+        </is>
+      </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>喜剧、动画、冒险</t>
+        </is>
+      </c>
+      <c r="I192" t="inlineStr">
+        <is>
+          <t>8.6</t>
+        </is>
+      </c>
+      <c r="J192" t="inlineStr">
+        <is>
+          <t>637047人评价</t>
+        </is>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>松鼠才是角儿。</t>
+        </is>
+      </c>
+    </row>
+    <row r="193" ht="30" customHeight="1">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>https://movie.douban.com/subject/25773932/</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>https://img3.doubanio.com/view/photo/s_ratio_poster/public/p2220776342.jpg</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>爆裂鼓手</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>达米恩·查泽雷</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>迈尔斯、特勒</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>2014</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>美国</t>
+        </is>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>剧情、音乐</t>
+        </is>
+      </c>
+      <c r="I193" t="inlineStr">
+        <is>
+          <t>8.7</t>
+        </is>
+      </c>
+      <c r="J193" t="inlineStr">
+        <is>
+          <t>610916人评价</t>
+        </is>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>这个世界从不善待努力的人，努力了也不一定会成功，但是知道自己在努力，就是活下去的动力。</t>
+        </is>
+      </c>
+    </row>
+    <row r="194" ht="30" customHeight="1">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>https://movie.douban.com/subject/3011051/</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>https://img9.doubanio.com/view/photo/s_ratio_poster/public/p462470694.jpg</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>恐怖游轮</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>克里斯托弗·史密斯</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>梅利莎、乔治</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>2009</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>英国、澳大利亚</t>
+        </is>
+      </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>剧情、悬疑、惊悚</t>
+        </is>
+      </c>
+      <c r="I194" t="inlineStr">
+        <is>
+          <t>8.5</t>
+        </is>
+      </c>
+      <c r="J194" t="inlineStr">
+        <is>
+          <t>899788人评价</t>
+        </is>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>不要企图在重复中寻找已经失去的爱。</t>
+        </is>
+      </c>
+    </row>
+    <row r="195" ht="30" customHeight="1">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>https://movie.douban.com/subject/1292329/</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>https://img9.doubanio.com/view/photo/s_ratio_poster/public/p848381236.jpg</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>牯岭街少年杀人事件</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>杨德昌</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>张震、杨静怡、张</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>1991</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>中国台湾</t>
+        </is>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>剧情、犯罪</t>
+        </is>
+      </c>
+      <c r="I195" t="inlineStr">
+        <is>
+          <t>8.9</t>
+        </is>
+      </c>
+      <c r="J195" t="inlineStr">
+        <is>
+          <t>317377人评价</t>
+        </is>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>弱者送给弱者的一刀。</t>
+        </is>
+      </c>
+    </row>
+    <row r="196" ht="30" customHeight="1">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>https://movie.douban.com/subject/1310177/</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>https://img1.doubanio.com/view/photo/s_ratio_poster/public/p456703618.jpg</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>东京教父</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>今敏</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>江守彻、梅垣义明</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>2003</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>日本</t>
+        </is>
+      </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>剧情、喜剧、动画</t>
+        </is>
+      </c>
+      <c r="I196" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="J196" t="inlineStr">
+        <is>
+          <t>246901人评价</t>
+        </is>
+      </c>
+      <c r="K196" t="inlineStr"/>
+    </row>
+    <row r="197" ht="30" customHeight="1">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>https://movie.douban.com/subject/2209573/</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>https://img1.doubanio.com/view/photo/s_ratio_poster/public/p2434249040.jpg</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>贫民窟的百万富翁</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>丹尼·鲍尔·洛芙琳·坦丹</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>戴夫</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>2008</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>英国</t>
+        </is>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>剧情、爱情</t>
+        </is>
+      </c>
+      <c r="I197" t="inlineStr">
+        <is>
+          <t>8.6</t>
+        </is>
+      </c>
+      <c r="J197" t="inlineStr">
+        <is>
+          <t>763793人评价</t>
+        </is>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>上帝之城+猜火车+阿甘正传+开心辞典=山寨富翁</t>
+        </is>
+      </c>
+    </row>
+    <row r="198" ht="30" customHeight="1">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>https://movie.douban.com/subject/27059130/</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>https://img3.doubanio.com/view/photo/s_ratio_poster/public/p2505928032.jpg</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>大佛普拉斯</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>黄信尧</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>庄益增、陈竹昇</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>中国台湾</t>
+        </is>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>剧情、喜剧</t>
+        </is>
+      </c>
+      <c r="I198" t="inlineStr">
+        <is>
+          <t>8.7</t>
+        </is>
+      </c>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>485470人评价</t>
+        </is>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>人们可以登上月球，却永远无法探索人们内心的宇宙。</t>
+        </is>
+      </c>
+    </row>
+    <row r="199" ht="30" customHeight="1">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>https://movie.douban.com/subject/1307811/</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>https://img3.doubanio.com/view/photo/s_ratio_poster/public/p456676352.jpg</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>魔女宅急便</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>宫崎骏</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>高山南、佐久间玲</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>1989</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>日本</t>
+        </is>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>动画、奇幻、冒险</t>
+        </is>
+      </c>
+      <c r="I199" t="inlineStr">
+        <is>
+          <t>8.7</t>
+        </is>
+      </c>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>476166人评价</t>
+        </is>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>宫崎骏的电影总让人感觉世界是美好的，阳光明媚的。</t>
+        </is>
+      </c>
+    </row>
+    <row r="200" ht="30" customHeight="1">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>https://movie.douban.com/subject/1292328/</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>https://img3.doubanio.com/view/photo/s_ratio_poster/public/p1982176012.jpg</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>东邪西毒</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>王家卫</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>张国荣、林青霞</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>1994</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>中国香港、中国台湾</t>
+        </is>
+      </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>剧情、动作、爱情、武侠、古装</t>
+        </is>
+      </c>
+      <c r="I200" t="inlineStr">
+        <is>
+          <t>8.6</t>
+        </is>
+      </c>
+      <c r="J200" t="inlineStr">
+        <is>
+          <t>593084人评价</t>
+        </is>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>电影诗。</t>
+        </is>
+      </c>
+    </row>
+    <row r="201" ht="30" customHeight="1">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>https://movie.douban.com/subject/1867345/</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>https://img3.doubanio.com/view/photo/s_ratio_poster/public/p2676812053.jpg</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>遗愿清单</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>罗伯·莱纳</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>杰克、尼科尔森、摩根</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>美国</t>
+        </is>
+      </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>冒险、喜剧、剧情</t>
+        </is>
+      </c>
+      <c r="I201" t="inlineStr">
+        <is>
+          <t>8.7</t>
+        </is>
+      </c>
+      <c r="J201" t="inlineStr">
+        <is>
+          <t>483005人评价</t>
+        </is>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>用剩余不多的时间，去燃烧整个生命。</t>
+        </is>
+      </c>
+    </row>
+    <row r="202" ht="30" customHeight="1">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>https://movie.douban.com/subject/4848115/</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>https://img3.doubanio.com/view/photo/s_ratio_poster/public/p709670262.jpg</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>你看起来好像很好吃</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>藤森雅也</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>山口胜平、爱河</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>日本</t>
+        </is>
+      </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>剧情、动画、儿童</t>
+        </is>
+      </c>
+      <c r="I202" t="inlineStr">
+        <is>
+          <t>8.9</t>
+        </is>
+      </c>
+      <c r="J202" t="inlineStr">
+        <is>
+          <t>344470人评价</t>
+        </is>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>感情不分食草或者食肉。</t>
+        </is>
+      </c>
+    </row>
+    <row r="203" ht="30" customHeight="1">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>https://movie.douban.com/subject/1308857/</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>https://img9.doubanio.com/view/photo/s_ratio_poster/public/p2363208684.jpg</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>可可西里</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>陆川</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>多布杰、张磊、亓亮</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>2004</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>中国大陆、中国香港</t>
+        </is>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>剧情、犯罪</t>
+        </is>
+      </c>
+      <c r="I203" t="inlineStr">
+        <is>
+          <t>8.9</t>
+        </is>
+      </c>
+      <c r="J203" t="inlineStr">
+        <is>
+          <t>314196人评价</t>
+        </is>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>坚硬的信仰。</t>
+        </is>
+      </c>
+    </row>
+    <row r="204" ht="30" customHeight="1">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>https://movie.douban.com/subject/1978709/</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>https://img9.doubanio.com/view/photo/s_ratio_poster/public/p2549648344.jpg</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>黑天鹅</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>达伦·阿罗诺夫斯基</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>娜塔莉、波特曼</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>美国</t>
+        </is>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>剧情、惊悚</t>
+        </is>
+      </c>
+      <c r="I204" t="inlineStr">
+        <is>
+          <t>8.6</t>
+        </is>
+      </c>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>799709人评价</t>
+        </is>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>黑暗之美。</t>
+        </is>
+      </c>
+    </row>
+    <row r="205" ht="30" customHeight="1">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>https://movie.douban.com/subject/1293908/</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>https://img1.doubanio.com/view/photo/s_ratio_poster/public/p2170238828.jpg</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>城市之光</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr"/>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>查理、卓别林、弗吉尼亚</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>1931</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>美国</t>
+        </is>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>喜剧、剧情、爱情</t>
+        </is>
+      </c>
+      <c r="I205" t="inlineStr">
+        <is>
+          <t>9.3</t>
+        </is>
+      </c>
+      <c r="J205" t="inlineStr">
+        <is>
+          <t>153933人评价</t>
+        </is>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>永远的小人物，伟大的卓别林。</t>
+        </is>
+      </c>
+    </row>
+    <row r="206" ht="30" customHeight="1">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>https://movie.douban.com/subject/3075287/</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>https://img9.doubanio.com/view/photo/s_ratio_poster/public/p988260245.jpg</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>源代码</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>邓肯·琼斯</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>杰克、吉伦哈尔</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>2011</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>美国、加拿大</t>
+        </is>
+      </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>科幻、悬疑、惊悚</t>
+        </is>
+      </c>
+      <c r="I206" t="inlineStr">
+        <is>
+          <t>8.5</t>
+        </is>
+      </c>
+      <c r="J206" t="inlineStr">
+        <is>
+          <t>859725人评价</t>
+        </is>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>邓肯·琼斯继《月球》之后再度奉献出一部精彩绝伦的科幻佳作。</t>
+        </is>
+      </c>
+    </row>
+    <row r="207" ht="30" customHeight="1">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>https://movie.douban.com/subject/1292401/</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>https://img1.doubanio.com/view/photo/s_ratio_poster/public/p475600770.jpg</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>真爱至上</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>理查德·柯蒂斯</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>休、格兰特、连姆</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>2003</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>英国、美国、法国</t>
+        </is>
+      </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>喜剧、剧情、爱情</t>
+        </is>
+      </c>
+      <c r="I207" t="inlineStr">
+        <is>
+          <t>8.5</t>
+        </is>
+      </c>
+      <c r="J207" t="inlineStr">
+        <is>
+          <t>757809人评价</t>
+        </is>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>爱，是个动词。</t>
+        </is>
+      </c>
+    </row>
+    <row r="208" ht="30" customHeight="1">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>https://movie.douban.com/subject/25980443/</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>https://img9.doubanio.com/view/photo/s_ratio_poster/public/p2421855655.jpg</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>海边的曼彻斯特</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>肯尼斯·罗纳根</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>卡西、阿弗莱克</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>美国</t>
+        </is>
+      </c>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>剧情、家庭</t>
+        </is>
+      </c>
+      <c r="I208" t="inlineStr">
+        <is>
+          <t>8.6</t>
+        </is>
+      </c>
+      <c r="J208" t="inlineStr">
+        <is>
+          <t>573186人评价</t>
+        </is>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>我们都有权利不与自己的过去和解。</t>
+        </is>
+      </c>
+    </row>
+    <row r="209" ht="30" customHeight="1">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>https://movie.douban.com/subject/1291992/</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>https://img9.doubanio.com/view/photo/s_ratio_poster/public/p1910924635.jpg</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>末路狂花</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>雷德利·斯科特</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>吉娜、戴维斯、苏</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>1991</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>美国、英国、法国</t>
+        </is>
+      </c>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>犯罪、剧情、惊悚</t>
+        </is>
+      </c>
+      <c r="I209" t="inlineStr">
+        <is>
+          <t>8.9</t>
+        </is>
+      </c>
+      <c r="J209" t="inlineStr">
+        <is>
+          <t>278266人评价</t>
+        </is>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>没有了退路，只好飞向自由。</t>
+        </is>
+      </c>
+    </row>
+    <row r="210" ht="30" customHeight="1">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>https://movie.douban.com/subject/5300054/</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>https://img3.doubanio.com/view/photo/s_ratio_poster/public/p2549558913.jpg</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>波西米亚狂想曲</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>布莱恩·辛格</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>拉米、马雷克、本、哈</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>英国、美国</t>
+        </is>
+      </c>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>剧情、传记、同性、音乐</t>
+        </is>
+      </c>
+      <c r="I210" t="inlineStr">
+        <is>
+          <t>8.6</t>
+        </is>
+      </c>
+      <c r="J210" t="inlineStr">
+        <is>
+          <t>628847人评价</t>
+        </is>
+      </c>
+      <c r="K210" t="inlineStr"/>
+    </row>
+    <row r="211" ht="30" customHeight="1">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>https://movie.douban.com/subject/1291870/</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>https://img3.doubanio.com/view/photo/s_ratio_poster/public/p2353324612.jpg</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>雨人</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>巴瑞·莱文森</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>达斯汀、霍夫曼</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>1988</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>美国</t>
+        </is>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>剧情</t>
+        </is>
+      </c>
+      <c r="I211" t="inlineStr">
+        <is>
+          <t>8.7</t>
+        </is>
+      </c>
+      <c r="J211" t="inlineStr">
+        <is>
+          <t>414985人评价</t>
+        </is>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>生活在自己的世界里，也可以让周围的人显得可笑和渺小。</t>
+        </is>
+      </c>
+    </row>
+    <row r="212" ht="30" customHeight="1">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>https://movie.douban.com/subject/1303394/</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>https://img3.doubanio.com/view/photo/s_ratio_poster/public/p2570901292.jpg</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>青蛇</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>徐克</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>张曼玉、王祖贤</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>1993</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>中国香港、中国大陆</t>
+        </is>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>剧情、爱情、奇幻、古装</t>
+        </is>
+      </c>
+      <c r="I212" t="inlineStr">
+        <is>
+          <t>8.6</t>
+        </is>
+      </c>
+      <c r="J212" t="inlineStr">
+        <is>
+          <t>545062人评价</t>
+        </is>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>人生如此，浮生如斯。谁人言，花彼岸，此生情长意短。谁都是不懂爱的罢了。</t>
+        </is>
+      </c>
+    </row>
+    <row r="213" ht="30" customHeight="1">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>https://movie.douban.com/subject/4739952/</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>https://img3.doubanio.com/view/photo/s_ratio_poster/public/p1505312273.jpg</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>初恋这件小事</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>普特鹏·普罗萨卡·那·萨克那卡林·华森·波克彭</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr"/>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>泰国</t>
+        </is>
+      </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>剧情、喜剧、爱情</t>
+        </is>
+      </c>
+      <c r="I213" t="inlineStr">
+        <is>
+          <t>8.5</t>
+        </is>
+      </c>
+      <c r="J213" t="inlineStr">
+        <is>
+          <t>1000041人评价</t>
+        </is>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>黑小鸭速效美白记。</t>
+        </is>
+      </c>
+    </row>
+    <row r="214" ht="30" customHeight="1">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>https://movie.douban.com/subject/1302827/</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>https://img3.doubanio.com/view/photo/s_ratio_poster/public/p792257137.jpg</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>人工智能</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>史蒂文·斯皮尔伯格</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>海利、乔、奥斯蒙</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>2001</t>
+        </is>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>美国、英国</t>
+        </is>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>剧情、科幻</t>
+        </is>
+      </c>
+      <c r="I214" t="inlineStr">
+        <is>
+          <t>8.7</t>
+        </is>
+      </c>
+      <c r="J214" t="inlineStr">
+        <is>
+          <t>461576人评价</t>
+        </is>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>对爱的执着，可以超越一切。</t>
+        </is>
+      </c>
+    </row>
+    <row r="215" ht="30" customHeight="1">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>https://movie.douban.com/subject/25934014/</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>https://img3.doubanio.com/view/photo/s_ratio_poster/public/p2901102612.jpg</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>爱乐之城</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>达米恩·查泽雷</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>瑞恩、高斯林</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>美国</t>
+        </is>
+      </c>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>剧情、爱情、歌舞</t>
+        </is>
+      </c>
+      <c r="I215" t="inlineStr">
+        <is>
+          <t>8.4</t>
+        </is>
+      </c>
+      <c r="J215" t="inlineStr">
+        <is>
+          <t>979720人评价</t>
+        </is>
+      </c>
+      <c r="K215" t="inlineStr"/>
+    </row>
+    <row r="216" ht="30" customHeight="1">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>https://movie.douban.com/subject/1309163/</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>https://img9.doubanio.com/view/photo/s_ratio_poster/public/p483604864.jpg</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>恋恋笔记本</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>尼克·卡索维茨</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>瑞恩、高斯林</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>2004</t>
+        </is>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>美国</t>
+        </is>
+      </c>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>剧情、爱情</t>
+        </is>
+      </c>
+      <c r="I216" t="inlineStr">
+        <is>
+          <t>8.5</t>
+        </is>
+      </c>
+      <c r="J216" t="inlineStr">
+        <is>
+          <t>693696人评价</t>
+        </is>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t xml:space="preserve">爱情没有那么多借口，如果不能圆满，只能说明爱的不够。 </t>
+        </is>
+      </c>
+    </row>
+    <row r="217" ht="30" customHeight="1">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>https://movie.douban.com/subject/1291844/</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>https://img9.doubanio.com/view/photo/s_ratio_poster/public/p1910909085.jpg</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>终结者2：审判日</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>詹姆斯·卡梅隆</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>阿诺、施瓦辛格</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>1991</t>
+        </is>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>美国、法国</t>
+        </is>
+      </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>动作、科幻</t>
+        </is>
+      </c>
+      <c r="I217" t="inlineStr">
+        <is>
+          <t>8.8</t>
+        </is>
+      </c>
+      <c r="J217" t="inlineStr">
+        <is>
+          <t>352871人评价</t>
+        </is>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>少见的超越首部的续集，动作片中的经典。</t>
+        </is>
+      </c>
+    </row>
+    <row r="218" ht="30" customHeight="1">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>https://movie.douban.com/subject/1296909/</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>https://img3.doubanio.com/view/photo/s_ratio_poster/public/p2399597512.jpg</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>虎口脱险</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>杰拉尔·乌里</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>路易、德、菲耐斯</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>1966</t>
+        </is>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>法国、英国</t>
+        </is>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>喜剧、战争</t>
+        </is>
+      </c>
+      <c r="I218" t="inlineStr">
+        <is>
+          <t>8.9</t>
+        </is>
+      </c>
+      <c r="J218" t="inlineStr">
+        <is>
+          <t>267878人评价</t>
+        </is>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>永远看不腻的喜剧。</t>
+        </is>
+      </c>
+    </row>
+    <row r="219" ht="30" customHeight="1">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>https://movie.douban.com/subject/3592854/</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>https://img3.doubanio.com/view/photo/s_ratio_poster/public/p2236181653.jpg</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>疯狂的麦克斯4：狂暴之路</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>乔治·米勒</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>汤姆、哈迪、查理兹、塞</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>澳大利亚、美国</t>
+        </is>
+      </c>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>动作、科幻、冒险</t>
+        </is>
+      </c>
+      <c r="I219" t="inlineStr">
+        <is>
+          <t>8.7</t>
+        </is>
+      </c>
+      <c r="J219" t="inlineStr">
+        <is>
+          <t>549379人评价</t>
+        </is>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>“多么美好的一天！”轰轰轰砰咚，啪哒哒哒轰隆隆，磅~</t>
+        </is>
+      </c>
+    </row>
+    <row r="220" ht="30" customHeight="1">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>https://movie.douban.com/subject/1297880/</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>https://img9.doubanio.com/view/photo/s_ratio_poster/public/p2174804034.jpg</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>芙蓉镇</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>谢晋</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>刘晓庆、姜文、郑在石</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>1987</t>
+        </is>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>中国大陆</t>
+        </is>
+      </c>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>剧情、爱情</t>
+        </is>
+      </c>
+      <c r="I220" t="inlineStr">
+        <is>
+          <t>9.3</t>
+        </is>
+      </c>
+      <c r="J220" t="inlineStr">
+        <is>
+          <t>152517人评价</t>
+        </is>
+      </c>
+      <c r="K220" t="inlineStr"/>
+    </row>
+    <row r="221" ht="30" customHeight="1">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>https://movie.douban.com/subject/1291879/</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>https://img2.doubanio.com/view/photo/s_ratio_poster/public/p1598883511.jpg</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>罗生门</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>黑泽明</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>三船敏郎、京町子</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>1950</t>
+        </is>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>日本</t>
+        </is>
+      </c>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>剧情、犯罪、悬疑</t>
+        </is>
+      </c>
+      <c r="I221" t="inlineStr">
+        <is>
+          <t>8.8</t>
+        </is>
+      </c>
+      <c r="J221" t="inlineStr">
+        <is>
+          <t>326541人评价</t>
+        </is>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>人生的N种可能性。</t>
+        </is>
+      </c>
+    </row>
+    <row r="222" ht="30" customHeight="1">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>https://movie.douban.com/subject/1292287/</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>https://img1.doubanio.com/view/photo/s_ratio_poster/public/p1421018669.jpg</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>新龙门客栈</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>李惠民</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>张曼玉、林青霞</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>1992</t>
+        </is>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>中国香港、中国大陆</t>
+        </is>
+      </c>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>动作、爱情、武侠、古装</t>
+        </is>
+      </c>
+      <c r="I222" t="inlineStr">
+        <is>
+          <t>8.7</t>
+        </is>
+      </c>
+      <c r="J222" t="inlineStr">
+        <is>
+          <t>460961人评价</t>
+        </is>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>嬉笑怒骂，调风动月。</t>
+        </is>
+      </c>
+    </row>
+    <row r="223" ht="30" customHeight="1">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>https://movie.douban.com/subject/1438652/</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>https://img3.doubanio.com/view/photo/s_ratio_poster/public/p1086394013.jpg</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>无耻混蛋</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>昆汀·塔伦蒂诺</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>布拉德、皮特</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>2009</t>
+        </is>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>德国、美国</t>
+        </is>
+      </c>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t>剧情、犯罪</t>
+        </is>
+      </c>
+      <c r="I223" t="inlineStr">
+        <is>
+          <t>8.7</t>
+        </is>
+      </c>
+      <c r="J223" t="inlineStr">
+        <is>
+          <t>498173人评价</t>
+        </is>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>昆汀同学越来越变态了，比北野武还杜琪峰。</t>
+        </is>
+      </c>
+    </row>
+    <row r="224" ht="30" customHeight="1">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>https://movie.douban.com/subject/1959877/</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>https://img1.doubanio.com/view/photo/s_ratio_poster/public/p2627847859.jpg</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>崖上的波妞</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>宫崎骏</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>奈良柚莉爱、土井洋辉</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>2008</t>
+        </is>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>日本</t>
+        </is>
+      </c>
+      <c r="H224" t="inlineStr">
+        <is>
+          <t>动画、奇幻、冒险</t>
+        </is>
+      </c>
+      <c r="I224" t="inlineStr">
+        <is>
+          <t>8.6</t>
+        </is>
+      </c>
+      <c r="J224" t="inlineStr">
+        <is>
+          <t>518554人评价</t>
+        </is>
+      </c>
+      <c r="K224" t="inlineStr"/>
+    </row>
+    <row r="225" ht="30" customHeight="1">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>https://movie.douban.com/subject/1300117/</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>https://img9.doubanio.com/view/photo/s_ratio_poster/public/p2195672555.jpg</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>千钧一发</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>安德鲁·尼科尔</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>伊桑、霍克、乌玛</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>1997</t>
+        </is>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>美国</t>
+        </is>
+      </c>
+      <c r="H225" t="inlineStr">
+        <is>
+          <t>剧情、科幻、惊悚</t>
+        </is>
+      </c>
+      <c r="I225" t="inlineStr">
+        <is>
+          <t>8.8</t>
+        </is>
+      </c>
+      <c r="J225" t="inlineStr">
+        <is>
+          <t>313477人评价</t>
+        </is>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>一部能引人思考的科幻励志片。</t>
+        </is>
+      </c>
+    </row>
+    <row r="226" ht="30" customHeight="1">
+      <c r="A226" t="inlineStr">
+        <is>
           <t>https://movie.douban.com/subject/34874432/</t>
         </is>
       </c>
-      <c r="B176" t="inlineStr">
+      <c r="B226" t="inlineStr">
         <is>
           <t>https://img3.doubanio.com/view/photo/s_ratio_poster/public/p2868462052.jpg</t>
         </is>
       </c>
-      <c r="C176" t="inlineStr">
+      <c r="C226" t="inlineStr">
         <is>
           <t>花束般的恋爱</t>
         </is>
       </c>
-      <c r="D176" t="inlineStr">
+      <c r="D226" t="inlineStr">
         <is>
           <t>土井裕泰</t>
         </is>
       </c>
-      <c r="E176" t="inlineStr">
+      <c r="E226" t="inlineStr">
         <is>
           <t>菅田将晖、有村架纯</t>
         </is>
       </c>
-      <c r="F176" t="inlineStr">
+      <c r="F226" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G176" t="inlineStr">
+      <c r="G226" t="inlineStr">
         <is>
           <t>日本</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
+      <c r="H226" t="inlineStr">
         <is>
           <t>剧情、爱情</t>
         </is>
       </c>
-      <c r="I176" t="inlineStr">
+      <c r="I226" t="inlineStr">
         <is>
           <t>8.6</t>
         </is>
       </c>
-      <c r="J176" t="inlineStr">
-        <is>
-          <t>674630人评价</t>
-        </is>
-      </c>
-      <c r="K176" t="inlineStr"/>
-    </row>
-    <row r="177" ht="30" customHeight="1"/>
-    <row r="178" ht="30" customHeight="1"/>
-    <row r="179" ht="30" customHeight="1"/>
-    <row r="180" ht="30" customHeight="1"/>
-    <row r="181" ht="30" customHeight="1"/>
-    <row r="182" ht="30" customHeight="1"/>
-    <row r="183" ht="30" customHeight="1"/>
-    <row r="184" ht="30" customHeight="1"/>
-    <row r="185" ht="30" customHeight="1"/>
-    <row r="186" ht="30" customHeight="1"/>
-    <row r="187" ht="30" customHeight="1"/>
-    <row r="188" ht="30" customHeight="1"/>
-    <row r="189" ht="30" customHeight="1"/>
-    <row r="190" ht="30" customHeight="1"/>
-    <row r="191" ht="30" customHeight="1"/>
-    <row r="192" ht="30" customHeight="1"/>
-    <row r="193" ht="30" customHeight="1"/>
-    <row r="194" ht="30" customHeight="1"/>
-    <row r="195" ht="30" customHeight="1"/>
-    <row r="196" ht="30" customHeight="1"/>
-    <row r="197" ht="30" customHeight="1"/>
-    <row r="198" ht="30" customHeight="1"/>
-    <row r="199" ht="30" customHeight="1"/>
-    <row r="200" ht="30" customHeight="1"/>
-    <row r="201" ht="30" customHeight="1"/>
-    <row r="202" ht="30" customHeight="1"/>
-    <row r="203" ht="30" customHeight="1"/>
-    <row r="204" ht="30" customHeight="1"/>
-    <row r="205" ht="30" customHeight="1"/>
-    <row r="206" ht="30" customHeight="1"/>
-    <row r="207" ht="30" customHeight="1"/>
-    <row r="208" ht="30" customHeight="1"/>
-    <row r="209" ht="30" customHeight="1"/>
-    <row r="210" ht="30" customHeight="1"/>
-    <row r="211" ht="30" customHeight="1"/>
-    <row r="212" ht="30" customHeight="1"/>
-    <row r="213" ht="30" customHeight="1"/>
-    <row r="214" ht="30" customHeight="1"/>
-    <row r="215" ht="30" customHeight="1"/>
-    <row r="216" ht="30" customHeight="1"/>
-    <row r="217" ht="30" customHeight="1"/>
-    <row r="218" ht="30" customHeight="1"/>
-    <row r="219" ht="30" customHeight="1"/>
-    <row r="220" ht="30" customHeight="1"/>
-    <row r="221" ht="30" customHeight="1"/>
-    <row r="222" ht="30" customHeight="1"/>
-    <row r="223" ht="30" customHeight="1"/>
-    <row r="224" ht="30" customHeight="1"/>
-    <row r="225" ht="30" customHeight="1"/>
-    <row r="226" ht="30" customHeight="1"/>
-    <row r="227" ht="30" customHeight="1"/>
-    <row r="228" ht="30" customHeight="1"/>
-    <row r="229" ht="30" customHeight="1"/>
-    <row r="230" ht="30" customHeight="1"/>
-    <row r="231" ht="30" customHeight="1"/>
-    <row r="232" ht="30" customHeight="1"/>
-    <row r="233" ht="30" customHeight="1"/>
-    <row r="234" ht="30" customHeight="1"/>
-    <row r="235" ht="30" customHeight="1"/>
-    <row r="236" ht="30" customHeight="1"/>
-    <row r="237" ht="30" customHeight="1"/>
-    <row r="238" ht="30" customHeight="1"/>
-    <row r="239" ht="30" customHeight="1"/>
-    <row r="240" ht="30" customHeight="1"/>
-    <row r="241" ht="30" customHeight="1"/>
-    <row r="242" ht="30" customHeight="1"/>
-    <row r="243" ht="30" customHeight="1"/>
-    <row r="244" ht="30" customHeight="1"/>
-    <row r="245" ht="30" customHeight="1"/>
-    <row r="246" ht="30" customHeight="1"/>
-    <row r="247" ht="30" customHeight="1"/>
-    <row r="248" ht="30" customHeight="1"/>
-    <row r="249" ht="30" customHeight="1"/>
-    <row r="250" ht="30" customHeight="1"/>
+      <c r="J226" t="inlineStr">
+        <is>
+          <t>675858人评价</t>
+        </is>
+      </c>
+      <c r="K226" t="inlineStr"/>
+    </row>
+    <row r="227" ht="30" customHeight="1">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>https://movie.douban.com/subject/25807345/</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>https://img9.doubanio.com/view/photo/s_ratio_poster/public/p2187896734.jpg</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>彗星来的那一夜</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>詹姆斯·沃德·布柯特</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>艾米丽、芭尔多尼</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
+      </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>美国、英国</t>
+        </is>
+      </c>
+      <c r="H227" t="inlineStr">
+        <is>
+          <t>科幻、悬疑、惊悚</t>
+        </is>
+      </c>
+      <c r="I227" t="inlineStr">
+        <is>
+          <t>8.6</t>
+        </is>
+      </c>
+      <c r="J227" t="inlineStr">
+        <is>
+          <t>608346人评价</t>
+        </is>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>小成本大魅力。</t>
+        </is>
+      </c>
+    </row>
+    <row r="228" ht="30" customHeight="1">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>https://movie.douban.com/subject/1293318/</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>https://img1.doubanio.com/view/photo/s_ratio_poster/public/p2237136718.jpg</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>萤火虫之墓</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>高畑勋</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>辰己努、白石绫乃、志乃原良子</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>1988</t>
+        </is>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>日本</t>
+        </is>
+      </c>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>动画、剧情、战争</t>
+        </is>
+      </c>
+      <c r="I228" t="inlineStr">
+        <is>
+          <t>8.7</t>
+        </is>
+      </c>
+      <c r="J228" t="inlineStr">
+        <is>
+          <t>413603人评价</t>
+        </is>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t xml:space="preserve">幸福是生生不息，却难以触及的远。 </t>
+        </is>
+      </c>
+    </row>
+    <row r="229" ht="30" customHeight="1">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>https://movie.douban.com/subject/2051007/</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>https://img9.doubanio.com/view/photo/s_ratio_poster/public/p721429854.jpg</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>哈利·波特与死亡圣器(上)</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>大卫·叶茨</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>丹尼尔、雷德克里夫</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>英国、美国</t>
+        </is>
+      </c>
+      <c r="H229" t="inlineStr">
+        <is>
+          <t>奇幻、冒险</t>
+        </is>
+      </c>
+      <c r="I229" t="inlineStr">
+        <is>
+          <t>8.5</t>
+        </is>
+      </c>
+      <c r="J229" t="inlineStr">
+        <is>
+          <t>606319人评价</t>
+        </is>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>最忠于原著的一部。</t>
+        </is>
+      </c>
+    </row>
+    <row r="230" ht="30" customHeight="1">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>https://movie.douban.com/subject/26787574/</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>https://img1.doubanio.com/view/photo/s_ratio_poster/public/p2507709428.jpg</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>奇迹男孩</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>斯蒂芬·卓博斯基</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>雅各布、特伦布莱</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>美国、中国香港</t>
+        </is>
+      </c>
+      <c r="H230" t="inlineStr">
+        <is>
+          <t>剧情、儿童、家庭</t>
+        </is>
+      </c>
+      <c r="I230" t="inlineStr">
+        <is>
+          <t>8.6</t>
+        </is>
+      </c>
+      <c r="J230" t="inlineStr">
+        <is>
+          <t>565525人评价</t>
+        </is>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>世界不完美，爱会有奇迹。</t>
+        </is>
+      </c>
+    </row>
+    <row r="231" ht="30" customHeight="1">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>https://movie.douban.com/subject/1304141/</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>https://img1.doubanio.com/view/photo/s_ratio_poster/public/p443461390.jpg</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>黑客帝国2：重装上阵</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>拉娜·沃卓斯基·莉莉·沃卓斯基</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr"/>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>2003</t>
+        </is>
+      </c>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>美国</t>
+        </is>
+      </c>
+      <c r="H231" t="inlineStr">
+        <is>
+          <t>动作、科幻</t>
+        </is>
+      </c>
+      <c r="I231" t="inlineStr">
+        <is>
+          <t>8.7</t>
+        </is>
+      </c>
+      <c r="J231" t="inlineStr">
+        <is>
+          <t>419583人评价</t>
+        </is>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>一个精彩的世界观正在缓缓建立。</t>
+        </is>
+      </c>
+    </row>
+    <row r="232" ht="30" customHeight="1">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>https://movie.douban.com/subject/26430107/</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>https://img3.doubanio.com/view/photo/s_ratio_poster/public/p2457609817.jpg</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>二十二</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>郭柯</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr"/>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>中国大陆</t>
+        </is>
+      </c>
+      <c r="H232" t="inlineStr">
+        <is>
+          <t>纪录片</t>
+        </is>
+      </c>
+      <c r="I232" t="inlineStr">
+        <is>
+          <t>8.7</t>
+        </is>
+      </c>
+      <c r="J232" t="inlineStr">
+        <is>
+          <t>298556人评价</t>
+        </is>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>有一些东西不应该被遗忘。</t>
+        </is>
+      </c>
+    </row>
+    <row r="233" ht="30" customHeight="1">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>https://movie.douban.com/subject/25864085/</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>https://img3.doubanio.com/view/photo/s_ratio_poster/public/p2264592493.jpg</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>火星救援</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>雷德利·斯科特</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>马特、达蒙、杰西卡</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>英国、美国、匈牙利、约旦</t>
+        </is>
+      </c>
+      <c r="H233" t="inlineStr">
+        <is>
+          <t>剧情、科幻、冒险</t>
+        </is>
+      </c>
+      <c r="I233" t="inlineStr">
+        <is>
+          <t>8.5</t>
+        </is>
+      </c>
+      <c r="J233" t="inlineStr">
+        <is>
+          <t>760255人评价</t>
+        </is>
+      </c>
+      <c r="K233" t="inlineStr"/>
+    </row>
+    <row r="234" ht="30" customHeight="1">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>https://movie.douban.com/subject/2133323/</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>https://img2.doubanio.com/view/photo/s_ratio_poster/public/p2160195181.jpg</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>白日梦想家</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>本·斯蒂勒</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>本、斯蒂勒、克里斯汀</t>
+        </is>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
+      </c>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>美国、英国</t>
+        </is>
+      </c>
+      <c r="H234" t="inlineStr">
+        <is>
+          <t>剧情、喜剧、冒险</t>
+        </is>
+      </c>
+      <c r="I234" t="inlineStr">
+        <is>
+          <t>8.6</t>
+        </is>
+      </c>
+      <c r="J234" t="inlineStr">
+        <is>
+          <t>527193人评价</t>
+        </is>
+      </c>
+      <c r="K234" t="inlineStr"/>
+    </row>
+    <row r="235" ht="30" customHeight="1">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>https://movie.douban.com/subject/1422283/</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>https://img1.doubanio.com/view/photo/s_ratio_poster/public/p2319879389.jpg</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>高山下的花环</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>谢晋</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>吕晓禾、唐国强、何</t>
+        </is>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>1984</t>
+        </is>
+      </c>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>中国大陆、1985、中国大陆</t>
+        </is>
+      </c>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>剧情、战争</t>
+        </is>
+      </c>
+      <c r="I235" t="inlineStr">
+        <is>
+          <t>9.5</t>
+        </is>
+      </c>
+      <c r="J235" t="inlineStr">
+        <is>
+          <t>103061人评价</t>
+        </is>
+      </c>
+      <c r="K235" t="inlineStr"/>
+    </row>
+    <row r="236" ht="30" customHeight="1">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>https://movie.douban.com/subject/1419936/</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>https://img2.doubanio.com/view/photo/s_ratio_poster/public/p792282381.jpg</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>战争之王</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>安德鲁·尼科尔</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>尼古拉斯、凯奇</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
+      </c>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>美国、德国</t>
+        </is>
+      </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>剧情、犯罪</t>
+        </is>
+      </c>
+      <c r="I236" t="inlineStr">
+        <is>
+          <t>8.7</t>
+        </is>
+      </c>
+      <c r="J236" t="inlineStr">
+        <is>
+          <t>381561人评价</t>
+        </is>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>做一颗让别人需要你的棋子。</t>
+        </is>
+      </c>
+    </row>
+    <row r="237" ht="30" customHeight="1">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>https://movie.douban.com/subject/1428175/</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>https://img3.doubanio.com/view/photo/s_ratio_poster/public/p1244017073.jpg</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>血钻</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>爱德华·兹威克</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>莱昂纳多、迪卡普里奥</t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="G237" t="inlineStr">
+        <is>
+          <t>美国、德国、英国</t>
+        </is>
+      </c>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>剧情、惊悚、冒险</t>
+        </is>
+      </c>
+      <c r="I237" t="inlineStr">
+        <is>
+          <t>8.7</t>
+        </is>
+      </c>
+      <c r="J237" t="inlineStr">
+        <is>
+          <t>392440人评价</t>
+        </is>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>每个美丽事物背后都是滴血的现实。</t>
+        </is>
+      </c>
+    </row>
+    <row r="238" ht="30" customHeight="1">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>https://movie.douban.com/subject/2222996/</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>https://img1.doubanio.com/view/photo/s_ratio_poster/public/p2375245718.jpg</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>步履不停</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>是枝裕和</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>阿部宽、夏川结衣</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>2008</t>
+        </is>
+      </c>
+      <c r="G238" t="inlineStr">
+        <is>
+          <t>日本</t>
+        </is>
+      </c>
+      <c r="H238" t="inlineStr">
+        <is>
+          <t>剧情、家庭</t>
+        </is>
+      </c>
+      <c r="I238" t="inlineStr">
+        <is>
+          <t>8.8</t>
+        </is>
+      </c>
+      <c r="J238" t="inlineStr">
+        <is>
+          <t>290462人评价</t>
+        </is>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>日本的家庭电影已经是世界巅峰了，步履不停是巅峰中的佳作。</t>
+        </is>
+      </c>
+    </row>
+    <row r="239" ht="30" customHeight="1">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>https://movie.douban.com/subject/25724855/</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>https://img9.doubanio.com/view/photo/s_ratio_poster/public/p2259715855.jpg</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>房间</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>伦尼·阿伯拉罕森</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>布丽、拉尔森</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>爱尔兰、加拿大、英国、美国</t>
+        </is>
+      </c>
+      <c r="H239" t="inlineStr">
+        <is>
+          <t>剧情、家庭</t>
+        </is>
+      </c>
+      <c r="I239" t="inlineStr">
+        <is>
+          <t>8.8</t>
+        </is>
+      </c>
+      <c r="J239" t="inlineStr">
+        <is>
+          <t>377072人评价</t>
+        </is>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>被偷走的岁月，被伤害的生命，被禁锢的灵魂，终将被希望和善意救赎。</t>
+        </is>
+      </c>
+    </row>
+    <row r="240" ht="30" customHeight="1">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>https://movie.douban.com/subject/1307394/</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>https://img9.doubanio.com/view/photo/s_ratio_poster/public/p2215102596.jpg</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>千年女优</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>今敏</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>庄司美代子、小山茉美</t>
+        </is>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>2001</t>
+        </is>
+      </c>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t>日本</t>
+        </is>
+      </c>
+      <c r="H240" t="inlineStr">
+        <is>
+          <t>动画、剧情、爱情</t>
+        </is>
+      </c>
+      <c r="I240" t="inlineStr">
+        <is>
+          <t>8.8</t>
+        </is>
+      </c>
+      <c r="J240" t="inlineStr">
+        <is>
+          <t>282168人评价</t>
+        </is>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>爱情是一场没有尽头的虚幻追逐。</t>
+        </is>
+      </c>
+    </row>
+    <row r="241" ht="30" customHeight="1">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>https://movie.douban.com/subject/1293964/</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>https://img1.doubanio.com/view/photo/s_ratio_poster/public/p2351134499.jpg</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>魂断蓝桥</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>茂文·勒鲁瓦</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>费雯、丽、罗伯特</t>
+        </is>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>1940</t>
+        </is>
+      </c>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>美国</t>
+        </is>
+      </c>
+      <c r="H241" t="inlineStr">
+        <is>
+          <t>剧情、爱情、战争</t>
+        </is>
+      </c>
+      <c r="I241" t="inlineStr">
+        <is>
+          <t>8.8</t>
+        </is>
+      </c>
+      <c r="J241" t="inlineStr">
+        <is>
+          <t>287769人评价</t>
+        </is>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>中国式内在的美国电影。</t>
+        </is>
+      </c>
+    </row>
+    <row r="242" ht="30" customHeight="1">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>https://movie.douban.com/subject/1457217/</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>https://img1.doubanio.com/view/photo/s_ratio_poster/public/p443403700.jpg</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>哈利·波特与凤凰社</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>大卫·叶茨</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>丹尼尔、雷德克里夫</t>
+        </is>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>英国、美国</t>
+        </is>
+      </c>
+      <c r="H242" t="inlineStr">
+        <is>
+          <t>奇幻、冒险</t>
+        </is>
+      </c>
+      <c r="I242" t="inlineStr">
+        <is>
+          <t>8.5</t>
+        </is>
+      </c>
+      <c r="J242" t="inlineStr">
+        <is>
+          <t>601562人评价</t>
+        </is>
+      </c>
+      <c r="K242" t="inlineStr"/>
+    </row>
+    <row r="243" ht="30" customHeight="1">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>https://movie.douban.com/subject/1308767/</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>https://img9.doubanio.com/view/photo/s_ratio_poster/public/p667644866.jpg</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>谍影重重2</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>保罗·格林格拉斯</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>马特、达蒙</t>
+        </is>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>2004</t>
+        </is>
+      </c>
+      <c r="G243" t="inlineStr">
+        <is>
+          <t>美国、德国</t>
+        </is>
+      </c>
+      <c r="H243" t="inlineStr">
+        <is>
+          <t>动作、悬疑、惊悚</t>
+        </is>
+      </c>
+      <c r="I243" t="inlineStr">
+        <is>
+          <t>8.7</t>
+        </is>
+      </c>
+      <c r="J243" t="inlineStr">
+        <is>
+          <t>365361人评价</t>
+        </is>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>谁说王家卫镜头很晃？</t>
+        </is>
+      </c>
+    </row>
+    <row r="244" ht="30" customHeight="1">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>https://movie.douban.com/subject/26374197/</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>https://img1.doubanio.com/view/photo/s_ratio_poster/public/p2535851348.jpg</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>蜘蛛侠：平行宇宙</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>鲍勃·佩尔西凯蒂·彼得·拉姆齐</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr"/>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>美国</t>
+        </is>
+      </c>
+      <c r="H244" t="inlineStr">
+        <is>
+          <t>动作、科幻、动画、冒险</t>
+        </is>
+      </c>
+      <c r="I244" t="inlineStr">
+        <is>
+          <t>8.6</t>
+        </is>
+      </c>
+      <c r="J244" t="inlineStr">
+        <is>
+          <t>694555人评价</t>
+        </is>
+      </c>
+      <c r="K244" t="inlineStr"/>
+    </row>
+    <row r="245" ht="30" customHeight="1">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>https://movie.douban.com/subject/1293323/</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>https://img3.doubanio.com/view/photo/s_ratio_poster/public/p1254404823.jpg</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>大红灯笼高高挂</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>张艺谋</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>巩俐、马精武、何赛</t>
+        </is>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>1991</t>
+        </is>
+      </c>
+      <c r="G245" t="inlineStr">
+        <is>
+          <t>中国大陆、中国香港、中国台湾</t>
+        </is>
+      </c>
+      <c r="H245" t="inlineStr">
+        <is>
+          <t>剧情</t>
+        </is>
+      </c>
+      <c r="I245" t="inlineStr">
+        <is>
+          <t>8.8</t>
+        </is>
+      </c>
+      <c r="J245" t="inlineStr">
+        <is>
+          <t>298247人评价</t>
+        </is>
+      </c>
+      <c r="K245" t="inlineStr"/>
+    </row>
+    <row r="246" ht="30" customHeight="1">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>https://movie.douban.com/subject/3552028/</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>https://img3.doubanio.com/view/photo/s_ratio_poster/public/p2577248102.jpg</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>弱点</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>约翰·李·汉考克</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>桑德拉、布洛克</t>
+        </is>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>2009</t>
+        </is>
+      </c>
+      <c r="G246" t="inlineStr">
+        <is>
+          <t>美国</t>
+        </is>
+      </c>
+      <c r="H246" t="inlineStr">
+        <is>
+          <t>剧情、家庭、传记、运动</t>
+        </is>
+      </c>
+      <c r="I246" t="inlineStr">
+        <is>
+          <t>8.7</t>
+        </is>
+      </c>
+      <c r="J246" t="inlineStr">
+        <is>
+          <t>323880人评价</t>
+        </is>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>拍掉身上的悲伤，从今天开始重新踏上追梦之旅。</t>
+        </is>
+      </c>
+    </row>
+    <row r="247" ht="30" customHeight="1">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>https://movie.douban.com/subject/1304102/</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>https://img2.doubanio.com/view/photo/s_ratio_poster/public/p1597183981.jpg</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>谍影重重</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>道格·里曼</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>马特、达蒙、弗兰卡、波坦</t>
+        </is>
+      </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>2002</t>
+        </is>
+      </c>
+      <c r="G247" t="inlineStr">
+        <is>
+          <t>美国、德国、捷克</t>
+        </is>
+      </c>
+      <c r="H247" t="inlineStr">
+        <is>
+          <t>动作、悬疑、惊悚</t>
+        </is>
+      </c>
+      <c r="I247" t="inlineStr">
+        <is>
+          <t>8.6</t>
+        </is>
+      </c>
+      <c r="J247" t="inlineStr">
+        <is>
+          <t>443685人评价</t>
+        </is>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>哗啦啦啦啦，天在下雨，哗啦啦啦啦，云在哭泣……找自己。</t>
+        </is>
+      </c>
+    </row>
+    <row r="248" ht="30" customHeight="1">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>https://movie.douban.com/subject/1305690/</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>https://img3.doubanio.com/view/photo/s_ratio_poster/public/p2525770523.jpg</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>阿飞正传</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>王家卫</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>张国荣、张曼玉</t>
+        </is>
+      </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>1990</t>
+        </is>
+      </c>
+      <c r="G248" t="inlineStr">
+        <is>
+          <t>中国香港</t>
+        </is>
+      </c>
+      <c r="H248" t="inlineStr">
+        <is>
+          <t>犯罪、剧情、爱情</t>
+        </is>
+      </c>
+      <c r="I248" t="inlineStr">
+        <is>
+          <t>8.5</t>
+        </is>
+      </c>
+      <c r="J248" t="inlineStr">
+        <is>
+          <t>528563人评价</t>
+        </is>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>王家卫是一种风格，张国荣是一个代表。</t>
+        </is>
+      </c>
+    </row>
+    <row r="249" ht="30" customHeight="1">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>https://movie.douban.com/subject/2213597/</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>https://img1.doubanio.com/view/photo/s_ratio_poster/public/p1140984198.jpg</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>朗读者</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>史蒂芬·戴德利</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>凯特、温丝莱特</t>
+        </is>
+      </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>2008</t>
+        </is>
+      </c>
+      <c r="G249" t="inlineStr">
+        <is>
+          <t>美国、德国</t>
+        </is>
+      </c>
+      <c r="H249" t="inlineStr">
+        <is>
+          <t>剧情、爱情</t>
+        </is>
+      </c>
+      <c r="I249" t="inlineStr">
+        <is>
+          <t>8.6</t>
+        </is>
+      </c>
+      <c r="J249" t="inlineStr">
+        <is>
+          <t>463714人评价</t>
+        </is>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t xml:space="preserve">当爱情跨越年龄的界限，它似乎能变得更久远一点，成为一种责任，一种水到渠成的相濡以沫。 </t>
+        </is>
+      </c>
+    </row>
+    <row r="250" ht="30" customHeight="1">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>https://movie.douban.com/subject/6874403/</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>https://img3.doubanio.com/view/photo/s_ratio_poster/public/p2250287733.jpg</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>再次出发之纽约遇见你</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>约翰·卡尼</t>
+        </is>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>凯拉、奈特莉、马克</t>
+        </is>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
+      </c>
+      <c r="G250" t="inlineStr">
+        <is>
+          <t>美国</t>
+        </is>
+      </c>
+      <c r="H250" t="inlineStr">
+        <is>
+          <t>喜剧、爱情、音乐</t>
+        </is>
+      </c>
+      <c r="I250" t="inlineStr">
+        <is>
+          <t>8.6</t>
+        </is>
+      </c>
+      <c r="J250" t="inlineStr">
+        <is>
+          <t>439938人评价</t>
+        </is>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>爱我就给我看你的播放列表。</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>https://movie.douban.com/subject/1295865/</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>https://img9.doubanio.com/view/photo/s_ratio_poster/public/p2797313535.jpg</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>燃情岁月</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>爱德华·兹威克</t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>布拉德、皮特、安东</t>
+        </is>
+      </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>1994</t>
+        </is>
+      </c>
+      <c r="G251" t="inlineStr">
+        <is>
+          <t>美国</t>
+        </is>
+      </c>
+      <c r="H251" t="inlineStr">
+        <is>
+          <t>剧情、爱情、战争、西部</t>
+        </is>
+      </c>
+      <c r="I251" t="inlineStr">
+        <is>
+          <t>8.7</t>
+        </is>
+      </c>
+      <c r="J251" t="inlineStr">
+        <is>
+          <t>295845人评价</t>
+        </is>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>传奇，不是每个人都可以拥有。</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
